--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPMProject\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59416F8C-44E5-41AD-80C8-4147958E7847}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216F863-0A10-4C0D-B2DB-ACC347A78734}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Bug Log</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Unresolved</t>
-  </si>
-  <si>
     <t>Bootstrap</t>
   </si>
   <si>
@@ -144,6 +141,15 @@
   </si>
   <si>
     <t>TY &amp; YL</t>
+  </si>
+  <si>
+    <t>Login (admin)</t>
+  </si>
+  <si>
+    <t>No logout button in bootstrap.php that admin is directed to</t>
+  </si>
+  <si>
+    <t>C &amp; WT</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -481,13 +487,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -502,9 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,9 +523,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -544,9 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,63 +571,36 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -702,44 +665,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1144,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1162,531 +1093,535 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="53" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27">
+        <v>1</v>
+      </c>
+      <c r="C3" s="48" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30">
-        <v>1</v>
-      </c>
-      <c r="C3" s="54" t="s">
+      <c r="D3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="36">
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="53">
         <f>SUM($F3:$F8)</f>
-        <v>8</v>
-      </c>
-      <c r="H3" s="35" t="str">
+        <v>17</v>
+      </c>
+      <c r="H3" s="31" t="str">
         <f xml:space="preserve"> IF(G3&lt;10,Instructions!B7,Instructions!B8)</f>
-        <v>Use the planned debugging time in the iteration.</v>
+        <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="33">
         <v>1</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="E4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="36">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G4" s="54"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="32">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33">
+        <v>1</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="40">
+      <c r="E5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
-        <v>3</v>
-      </c>
-      <c r="B5" s="37">
+      <c r="G5" s="54"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C6" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="32">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
-        <v>4</v>
-      </c>
-      <c r="B6" s="37">
-        <v>1</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
+      <c r="F7" s="36">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="37">
-        <v>1</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="43">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="44">
-        <v>1</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="27">
         <v>2</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G9" s="34">
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="53">
         <f>SUM(F9:F15)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="35" t="str">
+      <c r="H9" s="31" t="str">
         <f xml:space="preserve"> IF(G9&lt;10,Instructions!B7,Instructions!B8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="36">
+      <c r="A10" s="32">
         <v>8</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="33">
         <v>2</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
+      <c r="A11" s="32">
         <v>9</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="33">
         <v>2</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="36">
+      <c r="A12" s="32">
         <v>10</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="33">
         <v>2</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="36">
+      <c r="A13" s="32">
         <v>11</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="33">
         <v>2</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="36">
+      <c r="A14" s="32">
         <v>12</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="33">
         <v>2</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="43">
+      <c r="A15" s="38">
         <v>13</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="39">
         <v>2</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="55"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="26">
         <v>14</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="27">
         <v>3</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G16" s="34">
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="53">
         <f>SUM(F16:F19)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="35" t="str">
+      <c r="H16" s="31" t="str">
         <f xml:space="preserve"> IF(G16&lt;10,Instructions!B7,Instructions!B8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="36">
+      <c r="A17" s="32">
         <v>15</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="33">
         <v>3</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="36">
+      <c r="A18" s="32">
         <v>16</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="33">
         <v>3</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="43">
+      <c r="A19" s="38">
         <v>17</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="39">
         <v>3</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="26">
         <v>18</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="27">
         <v>4</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G20" s="34">
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" s="53">
         <f>SUM(F20:F23)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="35" t="str">
+      <c r="H20" s="31" t="str">
         <f xml:space="preserve"> IF(G20&lt;10,Instructions!B7,Instructions!B8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="36">
+      <c r="A21" s="32">
         <v>19</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="33">
         <v>4</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="36">
+      <c r="A22" s="32">
         <v>20</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="33">
         <v>4</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G22" s="54"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="43">
+      <c r="A23" s="38">
         <v>21</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="39">
         <v>4</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="24" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="26">
         <v>22</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="27">
         <v>5</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G24" s="34">
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" s="53">
         <f>SUM(F24:F27)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="35" t="str">
+      <c r="H24" s="31" t="str">
         <f xml:space="preserve"> IF(G24&lt;10,Instructions!B7,Instructions!B8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="36">
+      <c r="A25" s="32">
         <v>23</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="33">
         <v>5</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" s="54"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="36">
+      <c r="A26" s="32">
         <v>24</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="33">
         <v>5</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G26" s="54"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="43">
+      <c r="A27" s="38">
         <v>25</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="39">
         <v>5</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G27" s="55"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>26</v>
       </c>
       <c r="B28" s="23"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="23"/>
-      <c r="F28" s="33"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
     </row>
@@ -1695,8 +1630,8 @@
         <v>27</v>
       </c>
       <c r="B29" s="23"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -1707,8 +1642,8 @@
         <v>28</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1722,8 +1657,8 @@
         <v>29</v>
       </c>
       <c r="B31" s="22"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1737,8 +1672,8 @@
         <v>30</v>
       </c>
       <c r="B32" s="22"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1752,8 +1687,8 @@
         <v>31</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1767,8 +1702,8 @@
         <v>32</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1782,8 +1717,8 @@
         <v>33</v>
       </c>
       <c r="B35" s="22"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1797,8 +1732,8 @@
         <v>34</v>
       </c>
       <c r="B36" s="22"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1812,8 +1747,8 @@
         <v>35</v>
       </c>
       <c r="B37" s="22"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1827,8 +1762,8 @@
         <v>36</v>
       </c>
       <c r="B38" s="22"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1842,8 +1777,8 @@
         <v>37</v>
       </c>
       <c r="B39" s="22"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1857,8 +1792,8 @@
         <v>38</v>
       </c>
       <c r="B40" s="22"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1872,8 +1807,8 @@
         <v>39</v>
       </c>
       <c r="B41" s="22"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1887,8 +1822,8 @@
         <v>40</v>
       </c>
       <c r="B42" s="22"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1902,8 +1837,8 @@
         <v>41</v>
       </c>
       <c r="B43" s="22"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1917,8 +1852,8 @@
         <v>42</v>
       </c>
       <c r="B44" s="22"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1932,8 +1867,8 @@
         <v>43</v>
       </c>
       <c r="B45" s="22"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1947,8 +1882,8 @@
         <v>44</v>
       </c>
       <c r="B46" s="22"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1962,8 +1897,8 @@
         <v>45</v>
       </c>
       <c r="B47" s="22"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1977,8 +1912,8 @@
         <v>46</v>
       </c>
       <c r="B48" s="22"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23" t="str">
         <f t="shared" si="0"/>
@@ -1992,8 +1927,8 @@
         <v>47</v>
       </c>
       <c r="B49" s="22"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="23"/>
       <c r="F49" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2007,8 +1942,8 @@
         <v>48</v>
       </c>
       <c r="B50" s="22"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2022,8 +1957,8 @@
         <v>49</v>
       </c>
       <c r="B51" s="22"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="23"/>
       <c r="F51" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2037,8 +1972,8 @@
         <v>50</v>
       </c>
       <c r="B52" s="22"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="23"/>
       <c r="F52" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2052,8 +1987,8 @@
         <v>51</v>
       </c>
       <c r="B53" s="22"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="23"/>
       <c r="F53" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2067,8 +2002,8 @@
         <v>52</v>
       </c>
       <c r="B54" s="22"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="23"/>
       <c r="F54" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2082,8 +2017,8 @@
         <v>53</v>
       </c>
       <c r="B55" s="22"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="23"/>
       <c r="F55" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2097,8 +2032,8 @@
         <v>54</v>
       </c>
       <c r="B56" s="22"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2112,8 +2047,8 @@
         <v>55</v>
       </c>
       <c r="B57" s="22"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="23"/>
       <c r="F57" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2127,8 +2062,8 @@
         <v>56</v>
       </c>
       <c r="B58" s="22"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2142,8 +2077,8 @@
         <v>57</v>
       </c>
       <c r="B59" s="22"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2157,8 +2092,8 @@
         <v>58</v>
       </c>
       <c r="B60" s="22"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2172,8 +2107,8 @@
         <v>59</v>
       </c>
       <c r="B61" s="22"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2187,8 +2122,8 @@
         <v>60</v>
       </c>
       <c r="B62" s="22"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2202,8 +2137,8 @@
         <v>61</v>
       </c>
       <c r="B63" s="22"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2217,8 +2152,8 @@
         <v>62</v>
       </c>
       <c r="B64" s="22"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2232,8 +2167,8 @@
         <v>63</v>
       </c>
       <c r="B65" s="22"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
       <c r="E65" s="23"/>
       <c r="F65" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2247,8 +2182,8 @@
         <v>64</v>
       </c>
       <c r="B66" s="22"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2262,8 +2197,8 @@
         <v>65</v>
       </c>
       <c r="B67" s="22"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2277,8 +2212,8 @@
         <v>66</v>
       </c>
       <c r="B68" s="22"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2292,8 +2227,8 @@
         <v>67</v>
       </c>
       <c r="B69" s="22"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="23"/>
       <c r="F69" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2307,8 +2242,8 @@
         <v>68</v>
       </c>
       <c r="B70" s="22"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2322,8 +2257,8 @@
         <v>69</v>
       </c>
       <c r="B71" s="22"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="23"/>
       <c r="F71" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2337,8 +2272,8 @@
         <v>70</v>
       </c>
       <c r="B72" s="22"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2352,8 +2287,8 @@
         <v>71</v>
       </c>
       <c r="B73" s="22"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2367,8 +2302,8 @@
         <v>72</v>
       </c>
       <c r="B74" s="22"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2382,8 +2317,8 @@
         <v>73</v>
       </c>
       <c r="B75" s="22"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="23"/>
       <c r="F75" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2397,8 +2332,8 @@
         <v>74</v>
       </c>
       <c r="B76" s="22"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2412,8 +2347,8 @@
         <v>75</v>
       </c>
       <c r="B77" s="22"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="23"/>
       <c r="F77" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2427,8 +2362,8 @@
         <v>76</v>
       </c>
       <c r="B78" s="22"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2442,8 +2377,8 @@
         <v>77</v>
       </c>
       <c r="B79" s="22"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="23"/>
       <c r="F79" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2457,8 +2392,8 @@
         <v>78</v>
       </c>
       <c r="B80" s="22"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2472,8 +2407,8 @@
         <v>79</v>
       </c>
       <c r="B81" s="22"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
       <c r="E81" s="23"/>
       <c r="F81" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2487,8 +2422,8 @@
         <v>80</v>
       </c>
       <c r="B82" s="22"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2502,8 +2437,8 @@
         <v>81</v>
       </c>
       <c r="B83" s="22"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2517,8 +2452,8 @@
         <v>82</v>
       </c>
       <c r="B84" s="22"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
       <c r="E84" s="23"/>
       <c r="F84" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2532,8 +2467,8 @@
         <v>83</v>
       </c>
       <c r="B85" s="22"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
       <c r="E85" s="23"/>
       <c r="F85" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2547,8 +2482,8 @@
         <v>84</v>
       </c>
       <c r="B86" s="22"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2562,8 +2497,8 @@
         <v>85</v>
       </c>
       <c r="B87" s="22"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
       <c r="E87" s="23"/>
       <c r="F87" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2577,8 +2512,8 @@
         <v>86</v>
       </c>
       <c r="B88" s="22"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
       <c r="E88" s="23"/>
       <c r="F88" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2592,8 +2527,8 @@
         <v>87</v>
       </c>
       <c r="B89" s="22"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
       <c r="E89" s="23"/>
       <c r="F89" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2607,8 +2542,8 @@
         <v>88</v>
       </c>
       <c r="B90" s="22"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2622,8 +2557,8 @@
         <v>89</v>
       </c>
       <c r="B91" s="22"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
       <c r="E91" s="23"/>
       <c r="F91" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2637,8 +2572,8 @@
         <v>90</v>
       </c>
       <c r="B92" s="22"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2652,8 +2587,8 @@
         <v>91</v>
       </c>
       <c r="B93" s="22"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2667,8 +2602,8 @@
         <v>92</v>
       </c>
       <c r="B94" s="22"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2682,8 +2617,8 @@
         <v>93</v>
       </c>
       <c r="B95" s="22"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
       <c r="E95" s="23"/>
       <c r="F95" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2697,8 +2632,8 @@
         <v>94</v>
       </c>
       <c r="B96" s="22"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2712,8 +2647,8 @@
         <v>95</v>
       </c>
       <c r="B97" s="22"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
       <c r="E97" s="23"/>
       <c r="F97" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2727,8 +2662,8 @@
         <v>96</v>
       </c>
       <c r="B98" s="22"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2742,8 +2677,8 @@
         <v>97</v>
       </c>
       <c r="B99" s="22"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
       <c r="E99" s="23"/>
       <c r="F99" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2757,8 +2692,8 @@
         <v>98</v>
       </c>
       <c r="B100" s="22"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
       <c r="E100" s="23"/>
       <c r="F100" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2772,8 +2707,8 @@
         <v>99</v>
       </c>
       <c r="B101" s="22"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
       <c r="E101" s="23"/>
       <c r="F101" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2787,8 +2722,8 @@
         <v>100</v>
       </c>
       <c r="B102" s="22"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="23"/>
       <c r="F102" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2802,8 +2737,8 @@
         <v>101</v>
       </c>
       <c r="B103" s="22"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="23"/>
       <c r="F103" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2817,8 +2752,8 @@
         <v>102</v>
       </c>
       <c r="B104" s="22"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2832,8 +2767,8 @@
         <v>103</v>
       </c>
       <c r="B105" s="22"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
       <c r="E105" s="23"/>
       <c r="F105" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2847,8 +2782,8 @@
         <v>104</v>
       </c>
       <c r="B106" s="22"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
       <c r="E106" s="23"/>
       <c r="F106" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2862,8 +2797,8 @@
         <v>105</v>
       </c>
       <c r="B107" s="22"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
       <c r="E107" s="23"/>
       <c r="F107" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2877,8 +2812,8 @@
         <v>106</v>
       </c>
       <c r="B108" s="22"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
       <c r="E108" s="23"/>
       <c r="F108" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2892,8 +2827,8 @@
         <v>107</v>
       </c>
       <c r="B109" s="22"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
       <c r="E109" s="23"/>
       <c r="F109" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2907,8 +2842,8 @@
         <v>108</v>
       </c>
       <c r="B110" s="22"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="23"/>
       <c r="F110" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2922,8 +2857,8 @@
         <v>109</v>
       </c>
       <c r="B111" s="22"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="23"/>
       <c r="F111" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2937,8 +2872,8 @@
         <v>110</v>
       </c>
       <c r="B112" s="22"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
       <c r="E112" s="23"/>
       <c r="F112" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2952,8 +2887,8 @@
         <v>111</v>
       </c>
       <c r="B113" s="22"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
       <c r="E113" s="23"/>
       <c r="F113" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2967,8 +2902,8 @@
         <v>112</v>
       </c>
       <c r="B114" s="22"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2982,8 +2917,8 @@
         <v>113</v>
       </c>
       <c r="B115" s="22"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
       <c r="E115" s="23"/>
       <c r="F115" s="23" t="str">
         <f t="shared" si="0"/>
@@ -2997,8 +2932,8 @@
         <v>114</v>
       </c>
       <c r="B116" s="22"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3012,8 +2947,8 @@
         <v>115</v>
       </c>
       <c r="B117" s="22"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
       <c r="E117" s="23"/>
       <c r="F117" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3027,8 +2962,8 @@
         <v>116</v>
       </c>
       <c r="B118" s="22"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
       <c r="E118" s="23"/>
       <c r="F118" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3042,8 +2977,8 @@
         <v>117</v>
       </c>
       <c r="B119" s="22"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
       <c r="E119" s="23"/>
       <c r="F119" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3057,8 +2992,8 @@
         <v>118</v>
       </c>
       <c r="B120" s="22"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
       <c r="E120" s="23"/>
       <c r="F120" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3072,8 +3007,8 @@
         <v>119</v>
       </c>
       <c r="B121" s="22"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
       <c r="E121" s="23"/>
       <c r="F121" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3087,8 +3022,8 @@
         <v>120</v>
       </c>
       <c r="B122" s="22"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
       <c r="E122" s="23"/>
       <c r="F122" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3102,8 +3037,8 @@
         <v>121</v>
       </c>
       <c r="B123" s="22"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
       <c r="E123" s="23"/>
       <c r="F123" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3117,8 +3052,8 @@
         <v>122</v>
       </c>
       <c r="B124" s="22"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
       <c r="E124" s="23"/>
       <c r="F124" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3132,8 +3067,8 @@
         <v>123</v>
       </c>
       <c r="B125" s="22"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
       <c r="E125" s="23"/>
       <c r="F125" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3147,8 +3082,8 @@
         <v>124</v>
       </c>
       <c r="B126" s="22"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3162,8 +3097,8 @@
         <v>125</v>
       </c>
       <c r="B127" s="22"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
       <c r="E127" s="23"/>
       <c r="F127" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3177,8 +3112,8 @@
         <v>126</v>
       </c>
       <c r="B128" s="22"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
       <c r="E128" s="23"/>
       <c r="F128" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3192,8 +3127,8 @@
         <v>127</v>
       </c>
       <c r="B129" s="22"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
       <c r="E129" s="23"/>
       <c r="F129" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3207,8 +3142,8 @@
         <v>128</v>
       </c>
       <c r="B130" s="22"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3222,8 +3157,8 @@
         <v>129</v>
       </c>
       <c r="B131" s="22"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
       <c r="E131" s="23"/>
       <c r="F131" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3237,8 +3172,8 @@
         <v>130</v>
       </c>
       <c r="B132" s="22"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
       <c r="E132" s="23"/>
       <c r="F132" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3252,8 +3187,8 @@
         <v>131</v>
       </c>
       <c r="B133" s="22"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
       <c r="E133" s="23"/>
       <c r="F133" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3267,8 +3202,8 @@
         <v>132</v>
       </c>
       <c r="B134" s="22"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
       <c r="E134" s="23"/>
       <c r="F134" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3282,8 +3217,8 @@
         <v>133</v>
       </c>
       <c r="B135" s="22"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
       <c r="E135" s="23"/>
       <c r="F135" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3297,8 +3232,8 @@
         <v>134</v>
       </c>
       <c r="B136" s="22"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
       <c r="E136" s="23"/>
       <c r="F136" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3312,8 +3247,8 @@
         <v>135</v>
       </c>
       <c r="B137" s="22"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
       <c r="E137" s="23"/>
       <c r="F137" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3327,8 +3262,8 @@
         <v>136</v>
       </c>
       <c r="B138" s="22"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
       <c r="E138" s="23"/>
       <c r="F138" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3342,8 +3277,8 @@
         <v>137</v>
       </c>
       <c r="B139" s="22"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
       <c r="E139" s="23"/>
       <c r="F139" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3357,8 +3292,8 @@
         <v>138</v>
       </c>
       <c r="B140" s="22"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
       <c r="E140" s="23"/>
       <c r="F140" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3372,8 +3307,8 @@
         <v>139</v>
       </c>
       <c r="B141" s="22"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
       <c r="E141" s="23"/>
       <c r="F141" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3387,8 +3322,8 @@
         <v>140</v>
       </c>
       <c r="B142" s="22"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
       <c r="E142" s="23"/>
       <c r="F142" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3402,8 +3337,8 @@
         <v>141</v>
       </c>
       <c r="B143" s="22"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
       <c r="E143" s="23"/>
       <c r="F143" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3417,8 +3352,8 @@
         <v>142</v>
       </c>
       <c r="B144" s="22"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
       <c r="E144" s="23"/>
       <c r="F144" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3432,8 +3367,8 @@
         <v>143</v>
       </c>
       <c r="B145" s="22"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
       <c r="E145" s="23"/>
       <c r="F145" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3447,8 +3382,8 @@
         <v>144</v>
       </c>
       <c r="B146" s="22"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="25"/>
       <c r="E146" s="23"/>
       <c r="F146" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3462,8 +3397,8 @@
         <v>145</v>
       </c>
       <c r="B147" s="22"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="25"/>
       <c r="E147" s="23"/>
       <c r="F147" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3477,8 +3412,8 @@
         <v>146</v>
       </c>
       <c r="B148" s="22"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
       <c r="E148" s="23"/>
       <c r="F148" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3492,8 +3427,8 @@
         <v>147</v>
       </c>
       <c r="B149" s="22"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
       <c r="E149" s="23"/>
       <c r="F149" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3507,8 +3442,8 @@
         <v>148</v>
       </c>
       <c r="B150" s="22"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="25"/>
       <c r="E150" s="23"/>
       <c r="F150" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3522,8 +3457,8 @@
         <v>149</v>
       </c>
       <c r="B151" s="22"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="25"/>
       <c r="E151" s="23"/>
       <c r="F151" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3537,8 +3472,8 @@
         <v>150</v>
       </c>
       <c r="B152" s="22"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="25"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3552,8 +3487,8 @@
         <v>151</v>
       </c>
       <c r="B153" s="22"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="25"/>
       <c r="E153" s="23"/>
       <c r="F153" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3567,8 +3502,8 @@
         <v>152</v>
       </c>
       <c r="B154" s="22"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="28"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="25"/>
       <c r="E154" s="23"/>
       <c r="F154" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3582,8 +3517,8 @@
         <v>153</v>
       </c>
       <c r="B155" s="22"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
       <c r="E155" s="23"/>
       <c r="F155" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3597,8 +3532,8 @@
         <v>154</v>
       </c>
       <c r="B156" s="22"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="25"/>
       <c r="E156" s="23"/>
       <c r="F156" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3612,8 +3547,8 @@
         <v>155</v>
       </c>
       <c r="B157" s="22"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
       <c r="E157" s="23"/>
       <c r="F157" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3627,8 +3562,8 @@
         <v>156</v>
       </c>
       <c r="B158" s="22"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="25"/>
       <c r="E158" s="23"/>
       <c r="F158" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3642,8 +3577,8 @@
         <v>157</v>
       </c>
       <c r="B159" s="22"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="25"/>
       <c r="E159" s="23"/>
       <c r="F159" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3657,8 +3592,8 @@
         <v>158</v>
       </c>
       <c r="B160" s="22"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="25"/>
       <c r="E160" s="23"/>
       <c r="F160" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3672,8 +3607,8 @@
         <v>159</v>
       </c>
       <c r="B161" s="22"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="25"/>
       <c r="E161" s="23"/>
       <c r="F161" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3687,8 +3622,8 @@
         <v>160</v>
       </c>
       <c r="B162" s="22"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="25"/>
       <c r="E162" s="23"/>
       <c r="F162" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3702,8 +3637,8 @@
         <v>161</v>
       </c>
       <c r="B163" s="22"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="25"/>
       <c r="E163" s="23"/>
       <c r="F163" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3717,8 +3652,8 @@
         <v>162</v>
       </c>
       <c r="B164" s="22"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="28"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="25"/>
       <c r="E164" s="23"/>
       <c r="F164" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3732,8 +3667,8 @@
         <v>163</v>
       </c>
       <c r="B165" s="22"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="25"/>
       <c r="E165" s="23"/>
       <c r="F165" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3747,8 +3682,8 @@
         <v>164</v>
       </c>
       <c r="B166" s="22"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="25"/>
       <c r="E166" s="23"/>
       <c r="F166" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3762,8 +3697,8 @@
         <v>165</v>
       </c>
       <c r="B167" s="22"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="25"/>
       <c r="E167" s="23"/>
       <c r="F167" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3777,8 +3712,8 @@
         <v>166</v>
       </c>
       <c r="B168" s="22"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="25"/>
       <c r="E168" s="23"/>
       <c r="F168" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3792,8 +3727,8 @@
         <v>167</v>
       </c>
       <c r="B169" s="22"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="25"/>
       <c r="E169" s="23"/>
       <c r="F169" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3807,8 +3742,8 @@
         <v>168</v>
       </c>
       <c r="B170" s="22"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="25"/>
       <c r="E170" s="23"/>
       <c r="F170" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3822,8 +3757,8 @@
         <v>169</v>
       </c>
       <c r="B171" s="22"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="25"/>
       <c r="E171" s="23"/>
       <c r="F171" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3837,8 +3772,8 @@
         <v>170</v>
       </c>
       <c r="B172" s="22"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="25"/>
       <c r="E172" s="23"/>
       <c r="F172" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3852,8 +3787,8 @@
         <v>171</v>
       </c>
       <c r="B173" s="22"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="25"/>
       <c r="E173" s="23"/>
       <c r="F173" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3867,8 +3802,8 @@
         <v>172</v>
       </c>
       <c r="B174" s="22"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="25"/>
       <c r="E174" s="23"/>
       <c r="F174" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3882,8 +3817,8 @@
         <v>173</v>
       </c>
       <c r="B175" s="22"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="25"/>
       <c r="E175" s="23"/>
       <c r="F175" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3897,8 +3832,8 @@
         <v>174</v>
       </c>
       <c r="B176" s="22"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="25"/>
       <c r="E176" s="23"/>
       <c r="F176" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3912,8 +3847,8 @@
         <v>175</v>
       </c>
       <c r="B177" s="22"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
       <c r="E177" s="23"/>
       <c r="F177" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3927,8 +3862,8 @@
         <v>176</v>
       </c>
       <c r="B178" s="22"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="25"/>
       <c r="E178" s="23"/>
       <c r="F178" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3942,8 +3877,8 @@
         <v>177</v>
       </c>
       <c r="B179" s="22"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="25"/>
       <c r="E179" s="23"/>
       <c r="F179" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3957,8 +3892,8 @@
         <v>178</v>
       </c>
       <c r="B180" s="22"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="25"/>
       <c r="E180" s="23"/>
       <c r="F180" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3972,8 +3907,8 @@
         <v>179</v>
       </c>
       <c r="B181" s="22"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="25"/>
       <c r="E181" s="23"/>
       <c r="F181" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3987,8 +3922,8 @@
         <v>180</v>
       </c>
       <c r="B182" s="22"/>
-      <c r="C182" s="28"/>
-      <c r="D182" s="28"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="25"/>
       <c r="E182" s="23"/>
       <c r="F182" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4002,8 +3937,8 @@
         <v>181</v>
       </c>
       <c r="B183" s="22"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
       <c r="E183" s="23"/>
       <c r="F183" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4017,8 +3952,8 @@
         <v>182</v>
       </c>
       <c r="B184" s="22"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="25"/>
       <c r="E184" s="23"/>
       <c r="F184" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4032,8 +3967,8 @@
         <v>183</v>
       </c>
       <c r="B185" s="22"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="25"/>
       <c r="E185" s="23"/>
       <c r="F185" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4047,8 +3982,8 @@
         <v>184</v>
       </c>
       <c r="B186" s="22"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="25"/>
       <c r="E186" s="23"/>
       <c r="F186" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4062,8 +3997,8 @@
         <v>185</v>
       </c>
       <c r="B187" s="22"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="25"/>
       <c r="E187" s="23"/>
       <c r="F187" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4077,8 +4012,8 @@
         <v>186</v>
       </c>
       <c r="B188" s="22"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="25"/>
       <c r="E188" s="23"/>
       <c r="F188" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4092,8 +4027,8 @@
         <v>187</v>
       </c>
       <c r="B189" s="22"/>
-      <c r="C189" s="28"/>
-      <c r="D189" s="28"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="25"/>
       <c r="E189" s="23"/>
       <c r="F189" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4107,8 +4042,8 @@
         <v>188</v>
       </c>
       <c r="B190" s="22"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="25"/>
       <c r="E190" s="23"/>
       <c r="F190" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4122,8 +4057,8 @@
         <v>189</v>
       </c>
       <c r="B191" s="22"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="28"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="25"/>
       <c r="E191" s="23"/>
       <c r="F191" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4137,8 +4072,8 @@
         <v>190</v>
       </c>
       <c r="B192" s="22"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="28"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="25"/>
       <c r="E192" s="23"/>
       <c r="F192" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4152,8 +4087,8 @@
         <v>191</v>
       </c>
       <c r="B193" s="22"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="25"/>
       <c r="E193" s="23"/>
       <c r="F193" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4167,8 +4102,8 @@
         <v>192</v>
       </c>
       <c r="B194" s="22"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="28"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="25"/>
       <c r="E194" s="23"/>
       <c r="F194" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4182,8 +4117,8 @@
         <v>193</v>
       </c>
       <c r="B195" s="22"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="28"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="25"/>
       <c r="E195" s="23"/>
       <c r="F195" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4197,8 +4132,8 @@
         <v>194</v>
       </c>
       <c r="B196" s="22"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="25"/>
       <c r="E196" s="23"/>
       <c r="F196" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4212,8 +4147,8 @@
         <v>195</v>
       </c>
       <c r="B197" s="22"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="25"/>
       <c r="E197" s="23"/>
       <c r="F197" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4227,8 +4162,8 @@
         <v>196</v>
       </c>
       <c r="B198" s="22"/>
-      <c r="C198" s="28"/>
-      <c r="D198" s="28"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="25"/>
       <c r="E198" s="23"/>
       <c r="F198" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4242,8 +4177,8 @@
         <v>197</v>
       </c>
       <c r="B199" s="22"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="28"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="25"/>
       <c r="E199" s="23"/>
       <c r="F199" s="23" t="str">
         <f t="shared" si="0"/>
@@ -4257,8 +4192,8 @@
         <v>198</v>
       </c>
       <c r="B200" s="22"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="28"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="25"/>
       <c r="E200" s="23"/>
       <c r="F200" s="23" t="str">
         <f t="shared" si="0"/>
@@ -7469,20 +7404,20 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G24:G27"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="G3:G8"/>
     <mergeCell ref="G9:G15"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H23 H28:H1048576">
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H27">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7499,8 +7434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7517,16 +7452,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -7551,7 +7486,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7571,14 +7506,18 @@
         <f>'Bug Metrics'!$D3</f>
         <v>Visibility is poor for login page (black text on dark purple background)</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="58">
+      <c r="E3" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="52">
         <v>43735</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="18"/>
+      <c r="G3" s="52">
+        <v>43738</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
@@ -7597,17 +7536,17 @@
         <f>'Bug Metrics'!$D4</f>
         <v>Failed to redirect to the targeted page</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="52">
         <v>43738</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="52">
         <v>43738</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7627,17 +7566,17 @@
         <f>'Bug Metrics'!$D5</f>
         <v>Checked the wrong columns for pre-requisite.csv</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="52">
         <v>43738</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="52">
         <v>43738</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7657,16 +7596,20 @@
         <f>'Bug Metrics'!$D6</f>
         <v>Bootstrap errors output not sorted accordingly to the JSON requirements</v>
       </c>
-      <c r="E6" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="58">
+      <c r="E6" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="52">
         <v>43738</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6" s="52">
+        <v>43738</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>'Bug Metrics'!$A7</f>
         <v>5</v>
@@ -7675,18 +7618,26 @@
         <f>'Bug Metrics'!$B7</f>
         <v>1</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="9" t="str">
         <f>'Bug Metrics'!$C7</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
+        <v>Login (admin)</v>
+      </c>
+      <c r="D7" s="10" t="str">
         <f>'Bug Metrics'!$D7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="18"/>
+        <v>No logout button in bootstrap.php that admin is directed to</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="52">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="52">
+        <v>43738</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -7695,7 +7646,7 @@
       </c>
       <c r="B8" s="9">
         <f>'Bug Metrics'!$B8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="9">
         <f>'Bug Metrics'!$C8</f>
@@ -8009,7 +7960,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <f>'Bug Metrics'!$A23</f>
         <v>21</v>
@@ -17805,34 +17756,49 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E181">
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+  <conditionalFormatting sqref="E8:E181">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E181">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+  <conditionalFormatting sqref="E8:E181">
+    <cfRule type="cellIs" dxfId="7" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E181">
-    <cfRule type="containsBlanks" dxfId="19" priority="18">
-      <formula>LEN(TRIM(E7))=0</formula>
+  <conditionalFormatting sqref="E8:E181">
+    <cfRule type="containsBlanks" dxfId="6" priority="21">
+      <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
+      <formula>LEN(TRIM(E3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
+  <conditionalFormatting sqref="E7">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E3))=0</formula>
+      <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPMProject\project-g8t9\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SMU\Year 2\IS212 Software Project Management\GitHub SPM Project\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783685A1-39A1-4A28-8815-D48926173E5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C74B10-82DF-4F7E-ADDD-5ED191615D93}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Bug Log</t>
   </si>
@@ -174,6 +174,27 @@
   </si>
   <si>
     <t>Bootstrap proceeds to check file-specific validations after detecting a blank field</t>
+  </si>
+  <si>
+    <t>Edit Bid Function</t>
+  </si>
+  <si>
+    <t>Redirect link from mainpage.php is wrong and missing token for authentication, fails to proceed and is redirected to login.</t>
+  </si>
+  <si>
+    <t>C &amp; YL</t>
+  </si>
+  <si>
+    <t>Update E-dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total bidded amount calculation works incorrectly, results in wrong E-dollar amount in database and display. </t>
+  </si>
+  <si>
+    <t>Edit Bid</t>
+  </si>
+  <si>
+    <t>Missing token authentication, fails to proceed, redirected to login</t>
   </si>
 </sst>
 </file>
@@ -559,21 +580,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -604,7 +610,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,6 +617,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,7 +1113,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1109,16 +1130,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -1166,7 +1187,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="56">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -1195,7 +1216,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1218,7 +1239,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1241,7 +1262,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1264,7 +1285,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1277,7 +1298,7 @@
       <c r="C8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -1287,7 +1308,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="45"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1297,10 +1318,10 @@
       <c r="B9" s="19">
         <v>2</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="43" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -1310,9 +1331,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="56">
         <f>SUM(F9:F15)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H9" s="21" t="str">
         <f xml:space="preserve"> IF(G9&lt;10,Instructions!B7,Instructions!B8)</f>
@@ -1326,7 +1347,7 @@
       <c r="B10" s="23">
         <v>2</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -1339,7 +1360,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1349,14 +1370,20 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G11" s="44"/>
+      <c r="C11" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G11" s="57"/>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1366,14 +1393,14 @@
       <c r="B12" s="23">
         <v>2</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="41"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1383,14 +1410,14 @@
       <c r="B13" s="23">
         <v>2</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="41"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1400,14 +1427,14 @@
       <c r="B14" s="23">
         <v>2</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="41"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1417,14 +1444,14 @@
       <c r="B15" s="27">
         <v>2</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="28"/>
       <c r="F15" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G15" s="45"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1434,14 +1461,14 @@
       <c r="B16" s="19">
         <v>3</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="56">
         <f>SUM(F16:F19)</f>
         <v>0</v>
       </c>
@@ -1457,14 +1484,14 @@
       <c r="B17" s="23">
         <v>3</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="41"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1474,14 +1501,14 @@
       <c r="B18" s="23">
         <v>3</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="41"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1491,14 +1518,14 @@
       <c r="B19" s="27">
         <v>3</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="28"/>
       <c r="F19" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1508,14 +1535,14 @@
       <c r="B20" s="19">
         <v>4</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="56">
         <f>SUM(F20:F23)</f>
         <v>0</v>
       </c>
@@ -1531,14 +1558,14 @@
       <c r="B21" s="23">
         <v>4</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="41"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1548,14 +1575,14 @@
       <c r="B22" s="23">
         <v>4</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="41"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G22" s="44"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1565,14 +1592,14 @@
       <c r="B23" s="27">
         <v>4</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="28"/>
       <c r="F23" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G23" s="45"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1582,14 +1609,14 @@
       <c r="B24" s="19">
         <v>5</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="56">
         <f>SUM(F24:F27)</f>
         <v>0</v>
       </c>
@@ -1605,14 +1632,14 @@
       <c r="B25" s="23">
         <v>5</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="41"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G25" s="44"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1622,14 +1649,14 @@
       <c r="B26" s="23">
         <v>5</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="41"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="57"/>
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1639,14 +1666,14 @@
       <c r="B27" s="27">
         <v>5</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="28"/>
       <c r="F27" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G27" s="45"/>
+      <c r="G27" s="58"/>
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -7471,7 +7498,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7488,40 +7515,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="52" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7538,7 +7565,7 @@
         <f>'Bug Metrics'!$C3</f>
         <v>UI</v>
       </c>
-      <c r="D3" s="55" t="str">
+      <c r="D3" s="50" t="str">
         <f>'Bug Metrics'!$D3</f>
         <v>Visibility is poor for login page (black text on dark purple background)</v>
       </c>
@@ -7568,7 +7595,7 @@
         <f>'Bug Metrics'!$C4</f>
         <v>ProcessLogin</v>
       </c>
-      <c r="D4" s="55" t="str">
+      <c r="D4" s="50" t="str">
         <f>'Bug Metrics'!$D4</f>
         <v>Failed to redirect to the targeted page</v>
       </c>
@@ -7598,7 +7625,7 @@
         <f>'Bug Metrics'!$C5</f>
         <v>Bootstrap</v>
       </c>
-      <c r="D5" s="55" t="str">
+      <c r="D5" s="50" t="str">
         <f>'Bug Metrics'!$D5</f>
         <v>Checked the wrong columns for pre-requisite.csv</v>
       </c>
@@ -7628,7 +7655,7 @@
         <f>'Bug Metrics'!$C6</f>
         <v>Bootstrap</v>
       </c>
-      <c r="D6" s="55" t="str">
+      <c r="D6" s="50" t="str">
         <f>'Bug Metrics'!$D6</f>
         <v>Bootstrap errors output not sorted accordingly to the JSON requirements</v>
       </c>
@@ -7658,7 +7685,7 @@
         <f>'Bug Metrics'!$C7</f>
         <v>Login (admin)</v>
       </c>
-      <c r="D7" s="55" t="str">
+      <c r="D7" s="50" t="str">
         <f>'Bug Metrics'!$D7</f>
         <v>No logout button in bootstrap.php that admin is directed to</v>
       </c>
@@ -7688,7 +7715,7 @@
         <f>'Bug Metrics'!$C8</f>
         <v>Bootstrap</v>
       </c>
-      <c r="D8" s="55" t="str">
+      <c r="D8" s="50" t="str">
         <f>'Bug Metrics'!$D8</f>
         <v>Bootstrap does not work on AWS after deployment</v>
       </c>
@@ -7698,7 +7725,7 @@
       <c r="F8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="59"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7714,7 +7741,7 @@
         <f>'Bug Metrics'!$C9</f>
         <v>Bootstrap Validation</v>
       </c>
-      <c r="D9" s="56" t="str">
+      <c r="D9" s="51" t="str">
         <f>'Bug Metrics'!$D9</f>
         <v>Bootstrap proceeds to check file-specific validations after detecting a blank field</v>
       </c>
@@ -7724,7 +7751,7 @@
       <c r="F9" s="38">
         <v>43743</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="53">
         <v>43743</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -7744,7 +7771,7 @@
         <f>'Bug Metrics'!$C10</f>
         <v>Bootstrap Validation</v>
       </c>
-      <c r="D10" s="55" t="str">
+      <c r="D10" s="50" t="str">
         <f>'Bug Metrics'!$D10</f>
         <v>Bootstrap does not check for exam start &amp; end time properly</v>
       </c>
@@ -7754,14 +7781,14 @@
       <c r="F10" s="38">
         <v>43743</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="53">
         <v>43743</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -7769,20 +7796,26 @@
         <f>'Bug Metrics'!$B11</f>
         <v>2</v>
       </c>
-      <c r="C11" s="6">
-        <f>'Bug Metrics'!$C11</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="55">
-        <f>'Bug Metrics'!$D11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="53">
+        <v>43747</v>
+      </c>
+      <c r="G11" s="53">
+        <v>43747</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f>'Bug Metrics'!$A11</f>
         <v>9</v>
@@ -7791,18 +7824,24 @@
         <f>'Bug Metrics'!$B12</f>
         <v>2</v>
       </c>
-      <c r="C12" s="6">
-        <f>'Bug Metrics'!$C12</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="55">
-        <f>'Bug Metrics'!$D12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="53">
+        <v>43747</v>
+      </c>
+      <c r="G12" s="53">
+        <v>43747</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -7817,13 +7856,13 @@
         <f>'Bug Metrics'!$C13</f>
         <v>0</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="50">
         <f>'Bug Metrics'!$D13</f>
         <v>0</v>
       </c>
       <c r="E13" s="37"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7839,13 +7878,13 @@
         <f>'Bug Metrics'!$C14</f>
         <v>0</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="50">
         <f>'Bug Metrics'!$D14</f>
         <v>0</v>
       </c>
       <c r="E14" s="37"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7861,13 +7900,13 @@
         <f>'Bug Metrics'!$C15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="50">
         <f>'Bug Metrics'!$D15</f>
         <v>0</v>
       </c>
       <c r="E15" s="37"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7883,13 +7922,13 @@
         <f>'Bug Metrics'!$C16</f>
         <v>0</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="50">
         <f>'Bug Metrics'!$D16</f>
         <v>0</v>
       </c>
       <c r="E16" s="37"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7905,13 +7944,13 @@
         <f>'Bug Metrics'!$C17</f>
         <v>0</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="50">
         <f>'Bug Metrics'!$D17</f>
         <v>0</v>
       </c>
       <c r="E17" s="37"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7927,13 +7966,13 @@
         <f>'Bug Metrics'!$C18</f>
         <v>0</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="50">
         <f>'Bug Metrics'!$D18</f>
         <v>0</v>
       </c>
       <c r="E18" s="37"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7949,13 +7988,13 @@
         <f>'Bug Metrics'!$C19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="50">
         <f>'Bug Metrics'!$D19</f>
         <v>0</v>
       </c>
       <c r="E19" s="37"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7971,13 +8010,13 @@
         <f>'Bug Metrics'!$C20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="50">
         <f>'Bug Metrics'!$D20</f>
         <v>0</v>
       </c>
       <c r="E20" s="37"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7993,13 +8032,13 @@
         <f>'Bug Metrics'!$C21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="50">
         <f>'Bug Metrics'!$D21</f>
         <v>0</v>
       </c>
       <c r="E21" s="37"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -8015,13 +8054,13 @@
         <f>'Bug Metrics'!$C22</f>
         <v>0</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="50">
         <f>'Bug Metrics'!$D22</f>
         <v>0</v>
       </c>
       <c r="E22" s="37"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -8037,13 +8076,13 @@
         <f>'Bug Metrics'!$C23</f>
         <v>0</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="50">
         <f>'Bug Metrics'!$D23</f>
         <v>0</v>
       </c>
       <c r="E23" s="37"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPMProject\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783685A1-39A1-4A28-8815-D48926173E5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478C7F35-94F8-4ADB-8D0B-5D646E96DA1A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>Bug Log</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Bootstrap proceeds to check file-specific validations after detecting a blank field</t>
+  </si>
+  <si>
+    <t>Rounds Clearing</t>
+  </si>
+  <si>
+    <t>Clicking on "Start Round" in Round 1 does not direct the admin to bootstrap</t>
   </si>
 </sst>
 </file>
@@ -559,21 +565,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -604,7 +595,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,6 +602,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1109,16 +1115,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -1166,7 +1172,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="56">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -1195,7 +1201,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1218,7 +1224,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1241,7 +1247,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1264,7 +1270,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1277,7 +1283,7 @@
       <c r="C8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -1287,7 +1293,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="45"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1297,10 +1303,10 @@
       <c r="B9" s="19">
         <v>2</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="43" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -1310,9 +1316,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="56">
         <f>SUM(F9:F15)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H9" s="21" t="str">
         <f xml:space="preserve"> IF(G9&lt;10,Instructions!B7,Instructions!B8)</f>
@@ -1326,7 +1332,7 @@
       <c r="B10" s="23">
         <v>2</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -1339,7 +1345,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1349,14 +1355,20 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G11" s="44"/>
+      <c r="C11" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G11" s="57"/>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1366,14 +1378,14 @@
       <c r="B12" s="23">
         <v>2</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="41"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1383,14 +1395,14 @@
       <c r="B13" s="23">
         <v>2</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="41"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1400,14 +1412,14 @@
       <c r="B14" s="23">
         <v>2</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="41"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1417,14 +1429,14 @@
       <c r="B15" s="27">
         <v>2</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="28"/>
       <c r="F15" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G15" s="45"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1434,14 +1446,14 @@
       <c r="B16" s="19">
         <v>3</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="56">
         <f>SUM(F16:F19)</f>
         <v>0</v>
       </c>
@@ -1457,14 +1469,14 @@
       <c r="B17" s="23">
         <v>3</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="41"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1474,14 +1486,14 @@
       <c r="B18" s="23">
         <v>3</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="41"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1491,14 +1503,14 @@
       <c r="B19" s="27">
         <v>3</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="28"/>
       <c r="F19" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1508,14 +1520,14 @@
       <c r="B20" s="19">
         <v>4</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="56">
         <f>SUM(F20:F23)</f>
         <v>0</v>
       </c>
@@ -1531,14 +1543,14 @@
       <c r="B21" s="23">
         <v>4</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="41"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1548,14 +1560,14 @@
       <c r="B22" s="23">
         <v>4</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="41"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G22" s="44"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1565,14 +1577,14 @@
       <c r="B23" s="27">
         <v>4</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="28"/>
       <c r="F23" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G23" s="45"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1582,14 +1594,14 @@
       <c r="B24" s="19">
         <v>5</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="56">
         <f>SUM(F24:F27)</f>
         <v>0</v>
       </c>
@@ -1605,14 +1617,14 @@
       <c r="B25" s="23">
         <v>5</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="41"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G25" s="44"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1622,14 +1634,14 @@
       <c r="B26" s="23">
         <v>5</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="41"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="57"/>
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1639,14 +1651,14 @@
       <c r="B27" s="27">
         <v>5</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="28"/>
       <c r="F27" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G27" s="45"/>
+      <c r="G27" s="58"/>
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -7470,8 +7482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7488,40 +7500,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="52" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7538,7 +7550,7 @@
         <f>'Bug Metrics'!$C3</f>
         <v>UI</v>
       </c>
-      <c r="D3" s="55" t="str">
+      <c r="D3" s="50" t="str">
         <f>'Bug Metrics'!$D3</f>
         <v>Visibility is poor for login page (black text on dark purple background)</v>
       </c>
@@ -7568,7 +7580,7 @@
         <f>'Bug Metrics'!$C4</f>
         <v>ProcessLogin</v>
       </c>
-      <c r="D4" s="55" t="str">
+      <c r="D4" s="50" t="str">
         <f>'Bug Metrics'!$D4</f>
         <v>Failed to redirect to the targeted page</v>
       </c>
@@ -7598,7 +7610,7 @@
         <f>'Bug Metrics'!$C5</f>
         <v>Bootstrap</v>
       </c>
-      <c r="D5" s="55" t="str">
+      <c r="D5" s="50" t="str">
         <f>'Bug Metrics'!$D5</f>
         <v>Checked the wrong columns for pre-requisite.csv</v>
       </c>
@@ -7628,7 +7640,7 @@
         <f>'Bug Metrics'!$C6</f>
         <v>Bootstrap</v>
       </c>
-      <c r="D6" s="55" t="str">
+      <c r="D6" s="50" t="str">
         <f>'Bug Metrics'!$D6</f>
         <v>Bootstrap errors output not sorted accordingly to the JSON requirements</v>
       </c>
@@ -7658,7 +7670,7 @@
         <f>'Bug Metrics'!$C7</f>
         <v>Login (admin)</v>
       </c>
-      <c r="D7" s="55" t="str">
+      <c r="D7" s="50" t="str">
         <f>'Bug Metrics'!$D7</f>
         <v>No logout button in bootstrap.php that admin is directed to</v>
       </c>
@@ -7688,7 +7700,7 @@
         <f>'Bug Metrics'!$C8</f>
         <v>Bootstrap</v>
       </c>
-      <c r="D8" s="55" t="str">
+      <c r="D8" s="50" t="str">
         <f>'Bug Metrics'!$D8</f>
         <v>Bootstrap does not work on AWS after deployment</v>
       </c>
@@ -7698,7 +7710,7 @@
       <c r="F8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="59"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7714,7 +7726,7 @@
         <f>'Bug Metrics'!$C9</f>
         <v>Bootstrap Validation</v>
       </c>
-      <c r="D9" s="56" t="str">
+      <c r="D9" s="51" t="str">
         <f>'Bug Metrics'!$D9</f>
         <v>Bootstrap proceeds to check file-specific validations after detecting a blank field</v>
       </c>
@@ -7724,7 +7736,7 @@
       <c r="F9" s="38">
         <v>43743</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="53">
         <v>43743</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -7744,7 +7756,7 @@
         <f>'Bug Metrics'!$C10</f>
         <v>Bootstrap Validation</v>
       </c>
-      <c r="D10" s="55" t="str">
+      <c r="D10" s="50" t="str">
         <f>'Bug Metrics'!$D10</f>
         <v>Bootstrap does not check for exam start &amp; end time properly</v>
       </c>
@@ -7754,7 +7766,7 @@
       <c r="F10" s="38">
         <v>43743</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="53">
         <v>43743</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -7769,18 +7781,26 @@
         <f>'Bug Metrics'!$B11</f>
         <v>2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="6" t="str">
         <f>'Bug Metrics'!$C11</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="55">
+        <v>Rounds Clearing</v>
+      </c>
+      <c r="D11" s="50" t="str">
         <f>'Bug Metrics'!$D11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="6"/>
+        <v>Clicking on "Start Round" in Round 1 does not direct the admin to bootstrap</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="53">
+        <v>43748</v>
+      </c>
+      <c r="G11" s="53">
+        <v>43748</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -7795,13 +7815,13 @@
         <f>'Bug Metrics'!$C12</f>
         <v>0</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="50">
         <f>'Bug Metrics'!$D12</f>
         <v>0</v>
       </c>
       <c r="E12" s="37"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7817,13 +7837,13 @@
         <f>'Bug Metrics'!$C13</f>
         <v>0</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="50">
         <f>'Bug Metrics'!$D13</f>
         <v>0</v>
       </c>
       <c r="E13" s="37"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7839,13 +7859,13 @@
         <f>'Bug Metrics'!$C14</f>
         <v>0</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="50">
         <f>'Bug Metrics'!$D14</f>
         <v>0</v>
       </c>
       <c r="E14" s="37"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7861,13 +7881,13 @@
         <f>'Bug Metrics'!$C15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="50">
         <f>'Bug Metrics'!$D15</f>
         <v>0</v>
       </c>
       <c r="E15" s="37"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7883,13 +7903,13 @@
         <f>'Bug Metrics'!$C16</f>
         <v>0</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="50">
         <f>'Bug Metrics'!$D16</f>
         <v>0</v>
       </c>
       <c r="E16" s="37"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7905,13 +7925,13 @@
         <f>'Bug Metrics'!$C17</f>
         <v>0</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="50">
         <f>'Bug Metrics'!$D17</f>
         <v>0</v>
       </c>
       <c r="E17" s="37"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7927,13 +7947,13 @@
         <f>'Bug Metrics'!$C18</f>
         <v>0</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="50">
         <f>'Bug Metrics'!$D18</f>
         <v>0</v>
       </c>
       <c r="E18" s="37"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7949,13 +7969,13 @@
         <f>'Bug Metrics'!$C19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="50">
         <f>'Bug Metrics'!$D19</f>
         <v>0</v>
       </c>
       <c r="E19" s="37"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7971,13 +7991,13 @@
         <f>'Bug Metrics'!$C20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="50">
         <f>'Bug Metrics'!$D20</f>
         <v>0</v>
       </c>
       <c r="E20" s="37"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7993,13 +8013,13 @@
         <f>'Bug Metrics'!$C21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="50">
         <f>'Bug Metrics'!$D21</f>
         <v>0</v>
       </c>
       <c r="E21" s="37"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -8015,13 +8035,13 @@
         <f>'Bug Metrics'!$C22</f>
         <v>0</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="50">
         <f>'Bug Metrics'!$D22</f>
         <v>0</v>
       </c>
       <c r="E22" s="37"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -8037,13 +8057,13 @@
         <f>'Bug Metrics'!$C23</f>
         <v>0</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="50">
         <f>'Bug Metrics'!$D23</f>
         <v>0</v>
       </c>
       <c r="E23" s="37"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPMProject\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B80163-10DE-4A67-A8D3-F5B7D5C81E7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EB252C-7B88-45DF-9BDC-90AD2C8C6BC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="24165" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
   <si>
     <t>Severity</t>
   </si>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1864,13 +1864,17 @@
         <v>Test Case 115-bootstrap.txt does not work on AWS</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F24" s="48">
         <v>43751</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="46"/>
+      <c r="G24" s="48">
+        <v>43752</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="46">
@@ -1890,13 +1894,17 @@
         <v>Bid is created as object in one function but as list in another, causing some functions to not work</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F25" s="48">
         <v>43751</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
+      <c r="G25" s="49">
+        <v>43752</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="46">
@@ -12080,7 +12088,7 @@
       <c r="G10" s="57"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -12333,7 +12341,7 @@
       <c r="G21" s="57"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>21</v>
       </c>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YL\Desktop\SMU YEAR 2\Y2S1\Software Project Management G8 IS212\SPM\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D28E6-EFA1-4581-984B-2962B0908EA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A9C37B-AF85-401C-B46A-2B7F9B14667C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
   <si>
     <t>Severity</t>
   </si>
@@ -260,10 +260,16 @@
     <t>JSON</t>
   </si>
   <si>
-    <t>Add bid and Edit bid did not check for 2 decimal place and display error message when user enter amount more than 2 decimal place</t>
+    <t>Remark: Is not a bug</t>
   </si>
   <si>
-    <t>Add Bid, Edit Bid</t>
+    <t>Edit bid did not check for 2 decimal place and display error message when user enter amount more than 2 decimal place</t>
+  </si>
+  <si>
+    <t>Add bid did not check for 2 decimal place and display error message when user enter amount more than 2 decimal place</t>
+  </si>
+  <si>
+    <t>TY &amp; WT</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -678,6 +684,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1187,7 +1202,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1204,16 +1219,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
     </row>
     <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -1529,13 +1544,17 @@
         <v>Clicking on "Import" at bootstrap without uploading bootstrap file starts the round</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" s="48">
         <v>43748</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="46"/>
+      <c r="G12" s="48">
+        <v>43756</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
@@ -1940,12 +1959,14 @@
         <v>22</v>
       </c>
       <c r="F26" s="49">
-        <v>43791</v>
+        <v>43760</v>
       </c>
       <c r="G26" s="49">
         <v>43791</v>
       </c>
-      <c r="H26" s="50"/>
+      <c r="H26" s="50" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46">
@@ -1956,17 +1977,17 @@
       </c>
       <c r="C27" s="46" t="str">
         <f>'Bug Metrics'!$C27</f>
-        <v>Add Bid, Edit Bid</v>
+        <v>Edit Bid</v>
       </c>
       <c r="D27" s="51" t="str">
         <f>'Bug Metrics'!$D27</f>
-        <v>Add bid and Edit bid did not check for 2 decimal place and display error message when user enter amount more than 2 decimal place</v>
+        <v>Edit bid did not check for 2 decimal place and display error message when user enter amount more than 2 decimal place</v>
       </c>
       <c r="E27" s="53" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="49">
-        <v>43791</v>
+        <v>43760</v>
       </c>
       <c r="G27" s="49"/>
       <c r="H27" s="50"/>
@@ -1984,32 +2005,47 @@
       </c>
       <c r="D28" s="51" t="str">
         <f>'Bug Metrics'!$D28</f>
-        <v xml:space="preserve">Round 2 for Add bid, System did not validate if the user did enter amount higher than the Minimum Bid Required </v>
+        <v>Add bid did not check for 2 decimal place and display error message when user enter amount more than 2 decimal place</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F28" s="49">
-        <v>43791</v>
-      </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
+        <v>43760</v>
+      </c>
+      <c r="G28" s="49">
+        <v>43760</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46">
-        <f>'Bug Metrics'!$C35</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="51">
-        <f>'Bug Metrics'!$D35</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
+      <c r="A29" s="46">
+        <v>27</v>
+      </c>
+      <c r="B29" s="46">
+        <v>3</v>
+      </c>
+      <c r="C29" s="46" t="str">
+        <f>'Bug Metrics'!$C29</f>
+        <v>Add Bid</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="49">
+        <v>43760</v>
+      </c>
+      <c r="G29" s="49">
+        <v>43760</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
@@ -3565,7 +3601,7 @@
       <c r="G182" s="49"/>
       <c r="H182" s="50"/>
     </row>
-    <row r="183" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="46"/>
       <c r="B183" s="46"/>
       <c r="C183" s="46"/>
@@ -11808,8 +11844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11826,16 +11862,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -11883,7 +11919,7 @@
         <f t="shared" ref="F3:F216" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="61">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -11912,7 +11948,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -11935,7 +11971,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="59"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -11958,7 +11994,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="59"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -11981,7 +12017,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="59"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12004,7 +12040,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="60"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12027,7 +12063,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="61">
         <f>SUM(F9:F25)</f>
         <v>87</v>
       </c>
@@ -12056,7 +12092,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="59"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12079,7 +12115,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G11" s="59"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12102,7 +12138,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="59"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12125,7 +12161,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="59"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12148,7 +12184,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G14" s="59"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12171,7 +12207,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G15" s="59"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12194,7 +12230,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="59"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12217,7 +12253,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17" s="59"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12240,7 +12276,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="59"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12263,7 +12299,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="59"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12286,7 +12322,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G20" s="59"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12309,7 +12345,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="59"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12332,7 +12368,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="59"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12355,7 +12391,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="59"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12378,7 +12414,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="59"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12401,7 +12437,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G25" s="59"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12423,9 +12459,9 @@
       <c r="F26" s="37">
         <v>1</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="61">
         <f>SUM(F26:F35)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="12" t="str">
         <f xml:space="preserve"> IF(G26&lt;10,Instructions!B7,Instructions!B8)</f>
@@ -12440,10 +12476,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>76</v>
       </c>
       <c r="E27" s="38" t="s">
         <v>37</v>
@@ -12451,7 +12487,7 @@
       <c r="F27" s="38">
         <v>1</v>
       </c>
-      <c r="G27" s="59"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12465,30 +12501,39 @@
         <v>71</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="56" t="s">
         <v>37</v>
       </c>
       <c r="F28" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G28" s="59"/>
+      <c r="G28" s="62"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>27</v>
       </c>
       <c r="B29" s="14">
         <v>3</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="59"/>
+      <c r="C29" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="62"/>
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12502,7 +12547,7 @@
       <c r="D30" s="28"/>
       <c r="E30" s="54"/>
       <c r="F30" s="54"/>
-      <c r="G30" s="59"/>
+      <c r="G30" s="62"/>
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12516,7 +12561,7 @@
       <c r="D31" s="28"/>
       <c r="E31" s="54"/>
       <c r="F31" s="54"/>
-      <c r="G31" s="59"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12530,7 +12575,7 @@
       <c r="D32" s="28"/>
       <c r="E32" s="54"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="59"/>
+      <c r="G32" s="62"/>
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12544,7 +12589,7 @@
       <c r="D33" s="28"/>
       <c r="E33" s="54"/>
       <c r="F33" s="54"/>
-      <c r="G33" s="59"/>
+      <c r="G33" s="62"/>
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12558,7 +12603,7 @@
       <c r="D34" s="28"/>
       <c r="E34" s="54"/>
       <c r="F34" s="54"/>
-      <c r="G34" s="59"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12575,7 +12620,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G35" s="60"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12592,7 +12637,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G36" s="58">
+      <c r="G36" s="61">
         <f>SUM(F36:F39)</f>
         <v>0</v>
       </c>
@@ -12615,7 +12660,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G37" s="59"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12632,7 +12677,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G38" s="59"/>
+      <c r="G38" s="62"/>
       <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12649,7 +12694,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G39" s="60"/>
+      <c r="G39" s="63"/>
       <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12666,7 +12711,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G40" s="58">
+      <c r="G40" s="61">
         <f>SUM(F40:F43)</f>
         <v>0</v>
       </c>
@@ -12689,7 +12734,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G41" s="59"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12706,7 +12751,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G42" s="59"/>
+      <c r="G42" s="62"/>
       <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12723,7 +12768,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G43" s="60"/>
+      <c r="G43" s="63"/>
       <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPMProject\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F25A3A-7B77-4991-A43E-6EDEE5B3AFB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588A786A-99CB-456F-A4A7-943F9C6AF164}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="84">
   <si>
     <t>Severity</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>TY &amp; YL</t>
-  </si>
-  <si>
-    <t>Unresolved</t>
   </si>
   <si>
     <t>31/09/2019</t>
@@ -279,6 +276,12 @@
   </si>
   <si>
     <t>Ben's bid is stored as "Success" although it is lower than the minimum amount</t>
+  </si>
+  <si>
+    <t>Error displayed when trying to add a bid</t>
+  </si>
+  <si>
+    <t>LF &amp; YL</t>
   </si>
 </sst>
 </file>
@@ -730,27 +733,6 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -777,6 +759,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1234,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1460,13 +1463,13 @@
         <v>22</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="48">
         <v>43750</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1496,7 +1499,7 @@
         <v>43743</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1526,7 +1529,7 @@
         <v>43743</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1556,7 +1559,7 @@
         <v>43748</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1586,7 +1589,7 @@
         <v>43756</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1616,7 +1619,7 @@
         <v>43749</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1646,7 +1649,7 @@
         <v>43750</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1676,7 +1679,7 @@
         <v>43749</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1706,7 +1709,7 @@
         <v>43750</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1736,7 +1739,7 @@
         <v>43750</v>
       </c>
       <c r="H17" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -1766,7 +1769,7 @@
         <v>43751</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1796,7 +1799,7 @@
         <v>43751</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1826,7 +1829,7 @@
         <v>43751</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1855,7 +1858,7 @@
         <v>43751</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1884,7 +1887,7 @@
         <v>43751</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -1913,7 +1916,7 @@
         <v>43751</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -1942,7 +1945,7 @@
         <v>43752</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1970,7 +1973,7 @@
         <v>43752</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1998,7 +2001,7 @@
         <v>43791</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2026,7 +2029,7 @@
         <v>43760</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2054,7 +2057,7 @@
         <v>43760</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2082,7 +2085,7 @@
         <v>43760</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2101,13 +2104,17 @@
         <v>Min Bid Required reflects "14" although the user bidded for 12 and succeeded</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F30" s="49">
         <v>43761</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
+      <c r="G30" s="49">
+        <v>43762</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="46">
@@ -2125,13 +2132,17 @@
         <v>Ben's bid is stored as "Success" although it is lower than the minimum amount</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F31" s="49">
         <v>43761</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
+      <c r="G31" s="49">
+        <v>43763</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46">
@@ -2140,18 +2151,26 @@
       <c r="B32" s="46">
         <v>3</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="46" t="str">
         <f>'Bug Metrics'!$C32</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="57">
+        <v>Add Bid</v>
+      </c>
+      <c r="D32" s="57" t="str">
         <f>'Bug Metrics'!$D32</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
+        <v>Error displayed when trying to add a bid</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="49">
+        <v>43763</v>
+      </c>
+      <c r="G32" s="49">
+        <v>43763</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="46"/>
@@ -11889,17 +11908,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11917,8 +11936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11936,7 +11955,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -11963,13 +11982,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11980,13 +11999,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="37" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>37</v>
       </c>
       <c r="F3" s="38">
         <f t="shared" ref="F3:F216" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
@@ -12009,13 +12028,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="38" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="38">
         <f t="shared" si="0"/>
@@ -12032,13 +12051,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="38">
         <f t="shared" si="0"/>
@@ -12055,13 +12074,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="38">
         <f t="shared" si="0"/>
@@ -12078,13 +12097,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>45</v>
-      </c>
       <c r="E7" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="38">
         <f t="shared" si="0"/>
@@ -12101,13 +12120,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>46</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>47</v>
       </c>
       <c r="F8" s="38">
         <f t="shared" si="0"/>
@@ -12124,13 +12143,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>49</v>
-      </c>
       <c r="E9" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="0"/>
@@ -12153,13 +12172,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="38">
         <f t="shared" si="0"/>
@@ -12176,13 +12195,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>52</v>
-      </c>
       <c r="E11" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="38">
         <f t="shared" si="0"/>
@@ -12199,13 +12218,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="0"/>
@@ -12222,13 +12241,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>55</v>
-      </c>
       <c r="E13" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="38">
         <f t="shared" si="0"/>
@@ -12245,13 +12264,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>64</v>
-      </c>
       <c r="E14" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="41">
         <f t="shared" si="0"/>
@@ -12268,13 +12287,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="41">
         <f t="shared" si="0"/>
@@ -12291,13 +12310,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="40">
         <f t="shared" si="0"/>
@@ -12314,13 +12333,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="41">
         <f t="shared" si="0"/>
@@ -12337,13 +12356,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="40">
         <f t="shared" si="0"/>
@@ -12360,13 +12379,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="40">
         <f t="shared" si="0"/>
@@ -12383,13 +12402,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="41">
         <f t="shared" si="0"/>
@@ -12406,13 +12425,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="41">
         <f t="shared" si="0"/>
@@ -12429,13 +12448,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="41">
         <f t="shared" si="0"/>
@@ -12452,13 +12471,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="43">
         <f t="shared" si="0"/>
@@ -12475,13 +12494,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>68</v>
-      </c>
       <c r="E24" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="43">
         <f t="shared" si="0"/>
@@ -12498,13 +12517,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>72</v>
-      </c>
       <c r="E25" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="43">
         <f t="shared" si="0"/>
@@ -12521,13 +12540,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="58">
         <f t="shared" si="0"/>
@@ -12535,7 +12554,7 @@
       </c>
       <c r="G26" s="62">
         <f>SUM(F26:F35)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H26" s="12" t="str">
         <f xml:space="preserve"> IF(G26&lt;10,Instructions!B7,Instructions!B8)</f>
@@ -12550,13 +12569,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="58">
         <f t="shared" si="0"/>
@@ -12573,13 +12592,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="38">
         <f t="shared" si="0"/>
@@ -12596,13 +12615,13 @@
         <v>3</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="56">
         <f t="shared" si="0"/>
@@ -12619,13 +12638,13 @@
         <v>3</v>
       </c>
       <c r="C30" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>81</v>
-      </c>
       <c r="E30" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="58">
         <f t="shared" si="0"/>
@@ -12642,13 +12661,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="58">
         <f t="shared" si="0"/>
@@ -12664,10 +12683,19 @@
       <c r="B32" s="14">
         <v>3</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="58"/>
+      <c r="C32" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="58">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="G32" s="63"/>
       <c r="H32" s="15"/>
     </row>
@@ -18663,17 +18691,17 @@
     <mergeCell ref="G9:G25"/>
   </mergeCells>
   <conditionalFormatting sqref="H44:H1048576 H1:H15 H18:H39">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H43">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H17">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H16)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPMProject\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588A786A-99CB-456F-A4A7-943F9C6AF164}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62297A98-A47C-4DB2-8B22-1F89BC7ECBD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="86">
   <si>
     <t>Severity</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>LF &amp; YL</t>
+  </si>
+  <si>
+    <t>Round 2</t>
+  </si>
+  <si>
+    <t>Bid Result displays "Pending" instead of "successful / unsuccessful"</t>
   </si>
 </sst>
 </file>
@@ -535,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -708,6 +714,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1237,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1255,16 +1264,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
@@ -2090,7 +2099,7 @@
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="46">
         <v>3</v>
@@ -2099,7 +2108,7 @@
         <f>'Bug Metrics'!$C30</f>
         <v>View Bidding Results</v>
       </c>
-      <c r="D30" s="57" t="str">
+      <c r="D30" s="59" t="str">
         <f>'Bug Metrics'!$D30</f>
         <v>Min Bid Required reflects "14" although the user bidded for 12 and succeeded</v>
       </c>
@@ -2118,7 +2127,7 @@
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="46">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="46">
         <v>3</v>
@@ -2127,7 +2136,7 @@
         <f>'Bug Metrics'!$C31</f>
         <v>Rounds Clearing</v>
       </c>
-      <c r="D31" s="57" t="str">
+      <c r="D31" s="59" t="str">
         <f>'Bug Metrics'!$D31</f>
         <v>Ben's bid is stored as "Success" although it is lower than the minimum amount</v>
       </c>
@@ -2146,7 +2155,7 @@
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="46">
         <v>3</v>
@@ -2155,7 +2164,7 @@
         <f>'Bug Metrics'!$C32</f>
         <v>Add Bid</v>
       </c>
-      <c r="D32" s="57" t="str">
+      <c r="D32" s="59" t="str">
         <f>'Bug Metrics'!$D32</f>
         <v>Error displayed when trying to add a bid</v>
       </c>
@@ -2173,20 +2182,32 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46">
-        <f>'Bug Metrics'!$C43</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="34">
-        <f>'Bug Metrics'!$D43</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
+      <c r="A33" s="46">
+        <v>27</v>
+      </c>
+      <c r="B33" s="46">
+        <v>3</v>
+      </c>
+      <c r="C33" s="46" t="str">
+        <f>'Bug Metrics'!$C33</f>
+        <v>Round 2</v>
+      </c>
+      <c r="D33" s="59" t="str">
+        <f>'Bug Metrics'!$D33</f>
+        <v>Bid Result displays "Pending" instead of "successful / unsuccessful"</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="49">
+        <v>43763</v>
+      </c>
+      <c r="G33" s="49">
+        <v>43763</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
@@ -11937,7 +11958,7 @@
   <dimension ref="A1:H1016"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11954,16 +11975,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -12011,7 +12032,7 @@
         <f t="shared" ref="F3:F216" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="63">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -12040,7 +12061,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="63"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12063,7 +12084,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12086,7 +12107,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="63"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12109,7 +12130,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="63"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12132,7 +12153,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12155,7 +12176,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="63">
         <f>SUM(F9:F25)</f>
         <v>87</v>
       </c>
@@ -12184,7 +12205,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="63"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12207,7 +12228,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G11" s="63"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -12230,7 +12251,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="64"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12253,7 +12274,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="63"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -12276,7 +12297,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G14" s="63"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12299,7 +12320,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G15" s="63"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12322,7 +12343,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="63"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12345,7 +12366,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17" s="63"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -12368,7 +12389,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12391,7 +12412,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="63"/>
+      <c r="G19" s="64"/>
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -12414,7 +12435,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G20" s="63"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -12437,7 +12458,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="63"/>
+      <c r="G21" s="64"/>
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -12460,7 +12481,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="63"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -12483,7 +12504,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="63"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -12506,7 +12527,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -12529,7 +12550,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G25" s="63"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12552,9 +12573,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="62">
+      <c r="G26" s="63">
         <f>SUM(F26:F35)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H26" s="12" t="str">
         <f xml:space="preserve"> IF(G26&lt;10,Instructions!B7,Instructions!B8)</f>
@@ -12581,7 +12602,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="63"/>
+      <c r="G27" s="64"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -12604,7 +12625,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="63"/>
+      <c r="G28" s="64"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -12627,7 +12648,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="63"/>
+      <c r="G29" s="64"/>
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -12650,7 +12671,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="63"/>
+      <c r="G30" s="64"/>
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -12673,7 +12694,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="63"/>
+      <c r="G31" s="64"/>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12696,7 +12717,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G32" s="63"/>
+      <c r="G32" s="64"/>
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12706,11 +12727,20 @@
       <c r="B33" s="14">
         <v>3</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="63"/>
+      <c r="C33" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="64"/>
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12724,7 +12754,7 @@
       <c r="D34" s="28"/>
       <c r="E34" s="54"/>
       <c r="F34" s="54"/>
-      <c r="G34" s="63"/>
+      <c r="G34" s="64"/>
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12741,7 +12771,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G35" s="64"/>
+      <c r="G35" s="65"/>
       <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12758,7 +12788,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G36" s="62">
+      <c r="G36" s="63">
         <f>SUM(F36:F39)</f>
         <v>0</v>
       </c>
@@ -12781,7 +12811,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G37" s="63"/>
+      <c r="G37" s="64"/>
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12798,7 +12828,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G38" s="63"/>
+      <c r="G38" s="64"/>
       <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12815,7 +12845,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G39" s="64"/>
+      <c r="G39" s="65"/>
       <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12832,7 +12862,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G40" s="62">
+      <c r="G40" s="63">
         <f>SUM(F40:F43)</f>
         <v>0</v>
       </c>
@@ -12855,7 +12885,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G41" s="63"/>
+      <c r="G41" s="64"/>
       <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12872,7 +12902,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G42" s="63"/>
+      <c r="G42" s="64"/>
       <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -12889,7 +12919,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G43" s="64"/>
+      <c r="G43" s="65"/>
       <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPMProject\project-g8t9\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SMU\Year 2\IS212 Software Project Management\GitHub SPM Project\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62297A98-A47C-4DB2-8B22-1F89BC7ECBD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1E2220-42FC-4A4F-883F-DD03BE9B4633}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="88">
   <si>
     <t>Severity</t>
   </si>
@@ -289,6 +289,12 @@
   <si>
     <t>Bid Result displays "Pending" instead of "successful / unsuccessful"</t>
   </si>
+  <si>
+    <t>Edit bid does not load information for side navbar if round status is not started</t>
+  </si>
+  <si>
+    <t>26/10/2019</t>
+  </si>
 </sst>
 </file>
 
@@ -541,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -735,6 +741,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:H33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2210,14 +2219,30 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="50"/>
+      <c r="A34" s="46">
+        <v>28</v>
+      </c>
+      <c r="B34" s="46">
+        <v>3</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="46"/>
@@ -11957,8 +11982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12575,7 +12600,7 @@
       </c>
       <c r="G26" s="63">
         <f>SUM(F26:F35)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H26" s="12" t="str">
         <f xml:space="preserve"> IF(G26&lt;10,Instructions!B7,Instructions!B8)</f>
@@ -12743,17 +12768,26 @@
       <c r="G33" s="64"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>32</v>
       </c>
       <c r="B34" s="14">
         <v>3</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
+      <c r="C34" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="G34" s="64"/>
       <c r="H34" s="15"/>
     </row>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPMProject\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C58684-83A1-4BCE-A9EA-2D394E81FEF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E158E864-D6DD-474B-9BA1-C9495BB9BBFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
   <si>
     <t>Severity</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>Bids added when Round 2 is Not Started are automatically cleared as successful</t>
-  </si>
-  <si>
-    <t>Unresolved</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1262,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2270,13 +2267,17 @@
         <v>Bids added when Round 2 is Not Started are automatically cleared as successful</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F35" s="49">
         <v>43765</v>
       </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50"/>
+      <c r="G35" s="49">
+        <v>43766</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="46"/>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lifum\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPMProject\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FB18CC-2113-420A-9821-42211EEE079F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494BA758-88C9-4C53-BE93-BBCE93A78867}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="105">
   <si>
     <t>Severity</t>
   </si>
@@ -330,9 +330,6 @@
   </si>
   <si>
     <t>Completed courses page has no UI for header</t>
-  </si>
-  <si>
-    <t>Unresolved</t>
   </si>
   <si>
     <t>Database / Bootstrap</t>
@@ -1442,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2589,13 +2586,17 @@
         <v>Edited bid by admin is only reflected after refreshing</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F40" s="44">
         <v>43767</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
+      <c r="G40" s="44">
+        <v>43768</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="41">
@@ -2613,13 +2614,17 @@
         <v>Completed courses page has no UI for header</v>
       </c>
       <c r="E41" s="53" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F41" s="44">
         <v>43767</v>
       </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
+      <c r="G41" s="44">
+        <v>43768</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="41">
@@ -2646,7 +2651,7 @@
         <v>43767</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2665,13 +2670,17 @@
         <v>Admin UI fades slightly after clicking "show all data" in AWS</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F43" s="44">
         <v>43767</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="45"/>
+      <c r="G43" s="44">
+        <v>43768</v>
+      </c>
+      <c r="H43" s="45" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="41">
@@ -2743,11 +2752,17 @@
         <v>When exam timetable clashes, error message says lesson timetable clashes instead</v>
       </c>
       <c r="E46" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="45"/>
+        <v>22</v>
+      </c>
+      <c r="F46" s="44">
+        <v>43767</v>
+      </c>
+      <c r="G46" s="44">
+        <v>43768</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="41"/>
@@ -12380,10 +12395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1027"/>
+  <dimension ref="A1:H925"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:XFD227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12455,7 +12470,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="33">
-        <f t="shared" ref="F3:F227" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
+        <f t="shared" ref="F3:F125" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>1</v>
       </c>
       <c r="G3" s="80">
@@ -13446,10 +13461,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="68" t="s">
         <v>101</v>
-      </c>
-      <c r="D44" s="68" t="s">
-        <v>102</v>
       </c>
       <c r="E44" s="69" t="s">
         <v>46</v>
@@ -13479,7 +13494,7 @@
         <v>70</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E45" s="58" t="s">
         <v>46</v>
@@ -13503,7 +13518,7 @@
         <v>70</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E46" s="58" t="s">
         <v>36</v>
@@ -13962,7 +13977,7 @@
     </row>
     <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="51">
-        <f t="shared" ref="A74:A134" si="2">ROW()-2</f>
+        <f t="shared" ref="A74:A125" si="2">ROW()-2</f>
         <v>72</v>
       </c>
       <c r="B74" s="7"/>
@@ -14792,1594 +14807,463 @@
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="51">
-        <f t="shared" si="2"/>
-        <v>124</v>
-      </c>
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="7"/>
       <c r="B126" s="7"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-    </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="51">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="7"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-    </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="51">
-        <f t="shared" si="2"/>
-        <v>126</v>
-      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="7"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-    </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="51">
-        <f t="shared" si="2"/>
-        <v>127</v>
-      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="7"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-    </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="51">
-        <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="7"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-    </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="51">
-        <f t="shared" si="2"/>
-        <v>129</v>
-      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="7"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-    </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="51">
-        <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="7"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-    </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="51">
-        <f t="shared" si="2"/>
-        <v>131</v>
-      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="7"/>
       <c r="B133" s="7"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-    </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="51">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="7"/>
       <c r="B134" s="7"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-    </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="51">
-        <v>117</v>
-      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="7"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-    </row>
-    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="51">
-        <v>118</v>
-      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="7"/>
       <c r="B136" s="7"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-    </row>
-    <row r="137" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="51">
-        <v>119</v>
-      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="7"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-    </row>
-    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="51">
-        <v>120</v>
-      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="7"/>
       <c r="B138" s="7"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-    </row>
-    <row r="139" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="51">
-        <v>121</v>
-      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="7"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-    </row>
-    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="51">
-        <v>122</v>
-      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="7"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-    </row>
-    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="51">
-        <v>123</v>
-      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="7"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-    </row>
-    <row r="142" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="51">
-        <v>124</v>
-      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="7"/>
       <c r="B142" s="7"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-    </row>
-    <row r="143" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="51">
-        <v>125</v>
-      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="7"/>
       <c r="B143" s="7"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-    </row>
-    <row r="144" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="51">
-        <v>126</v>
-      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="7"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-    </row>
-    <row r="145" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="51">
-        <v>127</v>
-      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="7"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-    </row>
-    <row r="146" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="51">
-        <v>128</v>
-      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="7"/>
       <c r="B146" s="7"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-    </row>
-    <row r="147" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="51">
-        <v>129</v>
-      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="7"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-    </row>
-    <row r="148" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="51">
-        <v>130</v>
-      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="7"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-    </row>
-    <row r="149" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="51">
-        <v>131</v>
-      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="7"/>
       <c r="B149" s="7"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-    </row>
-    <row r="150" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="51">
-        <v>132</v>
-      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="7"/>
       <c r="B150" s="7"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-    </row>
-    <row r="151" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="51">
-        <v>133</v>
-      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="7"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-    </row>
-    <row r="152" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="51">
-        <v>134</v>
-      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="7"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-    </row>
-    <row r="153" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="51">
-        <v>135</v>
-      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="7"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-    </row>
-    <row r="154" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="51">
-        <v>136</v>
-      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="7"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-    </row>
-    <row r="155" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="51">
-        <v>137</v>
-      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="7"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-    </row>
-    <row r="156" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="51">
-        <v>138</v>
-      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="7"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-    </row>
-    <row r="157" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="51">
-        <v>139</v>
-      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="7"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-    </row>
-    <row r="158" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="51">
-        <v>140</v>
-      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="7"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-    </row>
-    <row r="159" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A159" s="51">
-        <v>141</v>
-      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="7"/>
       <c r="B159" s="7"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-    </row>
-    <row r="160" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="51">
-        <v>142</v>
-      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="7"/>
       <c r="B160" s="7"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-    </row>
-    <row r="161" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="51">
-        <v>143</v>
-      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="7"/>
       <c r="B161" s="7"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-    </row>
-    <row r="162" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="51">
-        <v>144</v>
-      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="7"/>
       <c r="B162" s="7"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-    </row>
-    <row r="163" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="51">
-        <v>145</v>
-      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="7"/>
       <c r="B163" s="7"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-    </row>
-    <row r="164" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="51">
-        <v>146</v>
-      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="7"/>
       <c r="B164" s="7"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-    </row>
-    <row r="165" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="51">
-        <v>147</v>
-      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="7"/>
       <c r="B165" s="7"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-    </row>
-    <row r="166" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="51">
-        <v>148</v>
-      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="7"/>
       <c r="B166" s="7"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-    </row>
-    <row r="167" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="51">
-        <v>149</v>
-      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="7"/>
       <c r="B167" s="7"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-    </row>
-    <row r="168" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="51">
-        <v>150</v>
-      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="7"/>
       <c r="B168" s="7"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-    </row>
-    <row r="169" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="51">
-        <v>151</v>
-      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="7"/>
       <c r="B169" s="7"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
-    </row>
-    <row r="170" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="51">
-        <v>152</v>
-      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="7"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-    </row>
-    <row r="171" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="51">
-        <v>153</v>
-      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="7"/>
       <c r="B171" s="7"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-    </row>
-    <row r="172" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="51">
-        <v>154</v>
-      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="7"/>
       <c r="B172" s="7"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-    </row>
-    <row r="173" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="51">
-        <v>155</v>
-      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="7"/>
       <c r="B173" s="7"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-    </row>
-    <row r="174" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="51">
-        <v>156</v>
-      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="7"/>
       <c r="B174" s="7"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-    </row>
-    <row r="175" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="51">
-        <v>157</v>
-      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="7"/>
       <c r="B175" s="7"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-    </row>
-    <row r="176" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="51">
-        <v>158</v>
-      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="7"/>
       <c r="B176" s="7"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-    </row>
-    <row r="177" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="51">
-        <v>159</v>
-      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="7"/>
       <c r="B177" s="7"/>
-      <c r="C177" s="9"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-    </row>
-    <row r="178" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="51">
-        <v>160</v>
-      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="7"/>
       <c r="B178" s="7"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-    </row>
-    <row r="179" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A179" s="51">
-        <v>161</v>
-      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="7"/>
       <c r="B179" s="7"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-    </row>
-    <row r="180" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A180" s="51">
-        <v>162</v>
-      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="7"/>
       <c r="B180" s="7"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-    </row>
-    <row r="181" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="51">
-        <v>163</v>
-      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="7"/>
       <c r="B181" s="7"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-    </row>
-    <row r="182" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A182" s="51">
-        <v>164</v>
-      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="7"/>
       <c r="B182" s="7"/>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-    </row>
-    <row r="183" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="51">
-        <v>165</v>
-      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="7"/>
       <c r="B183" s="7"/>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-    </row>
-    <row r="184" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A184" s="51">
-        <v>166</v>
-      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="7"/>
       <c r="B184" s="7"/>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
-    </row>
-    <row r="185" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="51">
-        <v>167</v>
-      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="7"/>
       <c r="B185" s="7"/>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-    </row>
-    <row r="186" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="51">
-        <v>168</v>
-      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="7"/>
       <c r="B186" s="7"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
-    </row>
-    <row r="187" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="51">
-        <v>169</v>
-      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="7"/>
       <c r="B187" s="7"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-    </row>
-    <row r="188" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="51">
-        <v>170</v>
-      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="7"/>
       <c r="B188" s="7"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-    </row>
-    <row r="189" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="51">
-        <v>171</v>
-      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="7"/>
       <c r="B189" s="7"/>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
-    </row>
-    <row r="190" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="51">
-        <v>172</v>
-      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="7"/>
       <c r="B190" s="7"/>
-      <c r="C190" s="9"/>
-      <c r="D190" s="9"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
-    </row>
-    <row r="191" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="51">
-        <v>173</v>
-      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="7"/>
       <c r="B191" s="7"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
-    </row>
-    <row r="192" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="51">
-        <v>174</v>
-      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="7"/>
       <c r="B192" s="7"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
-    </row>
-    <row r="193" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="51">
-        <v>175</v>
-      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="7"/>
       <c r="B193" s="7"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="9"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
-    </row>
-    <row r="194" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="51">
-        <v>176</v>
-      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="7"/>
       <c r="B194" s="7"/>
-      <c r="C194" s="9"/>
-      <c r="D194" s="9"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-    </row>
-    <row r="195" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A195" s="51">
-        <v>177</v>
-      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="7"/>
       <c r="B195" s="7"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
-    </row>
-    <row r="196" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A196" s="51">
-        <v>178</v>
-      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="7"/>
       <c r="B196" s="7"/>
-      <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-    </row>
-    <row r="197" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="51">
-        <v>168</v>
-      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="7"/>
       <c r="B197" s="7"/>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
-    </row>
-    <row r="198" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="51">
-        <v>169</v>
-      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="7"/>
       <c r="B198" s="7"/>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
-    </row>
-    <row r="199" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A199" s="51">
-        <v>170</v>
-      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="7"/>
       <c r="B199" s="7"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G199" s="8"/>
-      <c r="H199" s="8"/>
-    </row>
-    <row r="200" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="51">
-        <v>171</v>
-      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="7"/>
       <c r="B200" s="7"/>
-      <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
-    </row>
-    <row r="201" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A201" s="51">
-        <v>172</v>
-      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="7"/>
       <c r="B201" s="7"/>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
-    </row>
-    <row r="202" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A202" s="51">
-        <v>173</v>
-      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="7"/>
       <c r="B202" s="7"/>
-      <c r="C202" s="9"/>
-      <c r="D202" s="9"/>
-      <c r="E202" s="8"/>
-      <c r="F202" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G202" s="8"/>
-      <c r="H202" s="8"/>
-    </row>
-    <row r="203" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A203" s="51">
-        <v>174</v>
-      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="7"/>
       <c r="B203" s="7"/>
-      <c r="C203" s="9"/>
-      <c r="D203" s="9"/>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G203" s="8"/>
-      <c r="H203" s="8"/>
-    </row>
-    <row r="204" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A204" s="51">
-        <v>175</v>
-      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="7"/>
       <c r="B204" s="7"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9"/>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G204" s="8"/>
-      <c r="H204" s="8"/>
-    </row>
-    <row r="205" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A205" s="51">
-        <v>176</v>
-      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="7"/>
       <c r="B205" s="7"/>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G205" s="8"/>
-      <c r="H205" s="8"/>
-    </row>
-    <row r="206" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A206" s="51">
-        <v>177</v>
-      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="7"/>
       <c r="B206" s="7"/>
-      <c r="C206" s="9"/>
-      <c r="D206" s="9"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-    </row>
-    <row r="207" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A207" s="51">
-        <v>178</v>
-      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="7"/>
       <c r="B207" s="7"/>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-    </row>
-    <row r="208" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A208" s="51">
-        <v>179</v>
-      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="7"/>
       <c r="B208" s="7"/>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-    </row>
-    <row r="209" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A209" s="51">
-        <v>180</v>
-      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="7"/>
       <c r="B209" s="7"/>
-      <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
-      <c r="E209" s="8"/>
-      <c r="F209" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G209" s="8"/>
-      <c r="H209" s="8"/>
-    </row>
-    <row r="210" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A210" s="51">
-        <v>181</v>
-      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="7"/>
       <c r="B210" s="7"/>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-    </row>
-    <row r="211" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A211" s="51">
-        <v>182</v>
-      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="7"/>
       <c r="B211" s="7"/>
-      <c r="C211" s="9"/>
-      <c r="D211" s="9"/>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G211" s="8"/>
-      <c r="H211" s="8"/>
-    </row>
-    <row r="212" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A212" s="51">
-        <v>183</v>
-      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="7"/>
       <c r="B212" s="7"/>
-      <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
-      <c r="E212" s="8"/>
-      <c r="F212" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G212" s="8"/>
-      <c r="H212" s="8"/>
-    </row>
-    <row r="213" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A213" s="8">
-        <v>184</v>
-      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="7"/>
       <c r="B213" s="7"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G213" s="8"/>
-      <c r="H213" s="8"/>
-    </row>
-    <row r="214" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A214" s="8">
-        <v>185</v>
-      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="7"/>
       <c r="B214" s="7"/>
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G214" s="8"/>
-      <c r="H214" s="8"/>
-    </row>
-    <row r="215" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A215" s="8">
-        <v>186</v>
-      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="7"/>
       <c r="B215" s="7"/>
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G215" s="8"/>
-      <c r="H215" s="8"/>
-    </row>
-    <row r="216" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A216" s="8">
-        <v>187</v>
-      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="7"/>
       <c r="B216" s="7"/>
-      <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
-      <c r="E216" s="8"/>
-      <c r="F216" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G216" s="8"/>
-      <c r="H216" s="8"/>
-    </row>
-    <row r="217" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A217" s="8">
-        <v>188</v>
-      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="7"/>
       <c r="B217" s="7"/>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
-    </row>
-    <row r="218" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A218" s="8">
-        <v>189</v>
-      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="7"/>
       <c r="B218" s="7"/>
-      <c r="C218" s="9"/>
-      <c r="D218" s="9"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-    </row>
-    <row r="219" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A219" s="8">
-        <v>190</v>
-      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="7"/>
       <c r="B219" s="7"/>
-      <c r="C219" s="9"/>
-      <c r="D219" s="9"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G219" s="8"/>
-      <c r="H219" s="8"/>
-    </row>
-    <row r="220" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A220" s="8">
-        <v>191</v>
-      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="7"/>
       <c r="B220" s="7"/>
-      <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-    </row>
-    <row r="221" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A221" s="8">
-        <v>192</v>
-      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="7"/>
       <c r="B221" s="7"/>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G221" s="8"/>
-      <c r="H221" s="8"/>
-    </row>
-    <row r="222" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A222" s="8">
-        <v>193</v>
-      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="7"/>
       <c r="B222" s="7"/>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-    </row>
-    <row r="223" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A223" s="8">
-        <v>194</v>
-      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="7"/>
       <c r="B223" s="7"/>
-      <c r="C223" s="9"/>
-      <c r="D223" s="9"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G223" s="8"/>
-      <c r="H223" s="8"/>
-    </row>
-    <row r="224" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A224" s="8">
-        <v>195</v>
-      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="7"/>
       <c r="B224" s="7"/>
-      <c r="C224" s="9"/>
-      <c r="D224" s="9"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G224" s="8"/>
-      <c r="H224" s="8"/>
-    </row>
-    <row r="225" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A225" s="8">
-        <v>196</v>
-      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="7"/>
       <c r="B225" s="7"/>
-      <c r="C225" s="9"/>
-      <c r="D225" s="9"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G225" s="8"/>
-      <c r="H225" s="8"/>
-    </row>
-    <row r="226" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A226" s="8">
-        <v>197</v>
-      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="7"/>
       <c r="B226" s="7"/>
-      <c r="C226" s="9"/>
-      <c r="D226" s="9"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
-    </row>
-    <row r="227" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A227" s="8">
-        <v>198</v>
-      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="7"/>
       <c r="B227" s="7"/>
-      <c r="C227" s="9"/>
-      <c r="D227" s="9"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-    </row>
-    <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
     </row>
@@ -19122,414 +18006,6 @@
     <row r="925" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="7"/>
       <c r="B925" s="7"/>
-    </row>
-    <row r="926" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A926" s="7"/>
-      <c r="B926" s="7"/>
-    </row>
-    <row r="927" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A927" s="7"/>
-      <c r="B927" s="7"/>
-    </row>
-    <row r="928" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A928" s="7"/>
-      <c r="B928" s="7"/>
-    </row>
-    <row r="929" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A929" s="7"/>
-      <c r="B929" s="7"/>
-    </row>
-    <row r="930" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A930" s="7"/>
-      <c r="B930" s="7"/>
-    </row>
-    <row r="931" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A931" s="7"/>
-      <c r="B931" s="7"/>
-    </row>
-    <row r="932" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A932" s="7"/>
-      <c r="B932" s="7"/>
-    </row>
-    <row r="933" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A933" s="7"/>
-      <c r="B933" s="7"/>
-    </row>
-    <row r="934" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A934" s="7"/>
-      <c r="B934" s="7"/>
-    </row>
-    <row r="935" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A935" s="7"/>
-      <c r="B935" s="7"/>
-    </row>
-    <row r="936" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A936" s="7"/>
-      <c r="B936" s="7"/>
-    </row>
-    <row r="937" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A937" s="7"/>
-      <c r="B937" s="7"/>
-    </row>
-    <row r="938" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A938" s="7"/>
-      <c r="B938" s="7"/>
-    </row>
-    <row r="939" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A939" s="7"/>
-      <c r="B939" s="7"/>
-    </row>
-    <row r="940" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A940" s="7"/>
-      <c r="B940" s="7"/>
-    </row>
-    <row r="941" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A941" s="7"/>
-      <c r="B941" s="7"/>
-    </row>
-    <row r="942" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A942" s="7"/>
-      <c r="B942" s="7"/>
-    </row>
-    <row r="943" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A943" s="7"/>
-      <c r="B943" s="7"/>
-    </row>
-    <row r="944" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A944" s="7"/>
-      <c r="B944" s="7"/>
-    </row>
-    <row r="945" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A945" s="7"/>
-      <c r="B945" s="7"/>
-    </row>
-    <row r="946" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A946" s="7"/>
-      <c r="B946" s="7"/>
-    </row>
-    <row r="947" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A947" s="7"/>
-      <c r="B947" s="7"/>
-    </row>
-    <row r="948" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A948" s="7"/>
-      <c r="B948" s="7"/>
-    </row>
-    <row r="949" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A949" s="7"/>
-      <c r="B949" s="7"/>
-    </row>
-    <row r="950" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A950" s="7"/>
-      <c r="B950" s="7"/>
-    </row>
-    <row r="951" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A951" s="7"/>
-      <c r="B951" s="7"/>
-    </row>
-    <row r="952" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A952" s="7"/>
-      <c r="B952" s="7"/>
-    </row>
-    <row r="953" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A953" s="7"/>
-      <c r="B953" s="7"/>
-    </row>
-    <row r="954" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A954" s="7"/>
-      <c r="B954" s="7"/>
-    </row>
-    <row r="955" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A955" s="7"/>
-      <c r="B955" s="7"/>
-    </row>
-    <row r="956" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A956" s="7"/>
-      <c r="B956" s="7"/>
-    </row>
-    <row r="957" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A957" s="7"/>
-      <c r="B957" s="7"/>
-    </row>
-    <row r="958" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A958" s="7"/>
-      <c r="B958" s="7"/>
-    </row>
-    <row r="959" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A959" s="7"/>
-      <c r="B959" s="7"/>
-    </row>
-    <row r="960" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A960" s="7"/>
-      <c r="B960" s="7"/>
-    </row>
-    <row r="961" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A961" s="7"/>
-      <c r="B961" s="7"/>
-    </row>
-    <row r="962" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A962" s="7"/>
-      <c r="B962" s="7"/>
-    </row>
-    <row r="963" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A963" s="7"/>
-      <c r="B963" s="7"/>
-    </row>
-    <row r="964" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A964" s="7"/>
-      <c r="B964" s="7"/>
-    </row>
-    <row r="965" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A965" s="7"/>
-      <c r="B965" s="7"/>
-    </row>
-    <row r="966" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A966" s="7"/>
-      <c r="B966" s="7"/>
-    </row>
-    <row r="967" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A967" s="7"/>
-      <c r="B967" s="7"/>
-    </row>
-    <row r="968" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A968" s="7"/>
-      <c r="B968" s="7"/>
-    </row>
-    <row r="969" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A969" s="7"/>
-      <c r="B969" s="7"/>
-    </row>
-    <row r="970" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A970" s="7"/>
-      <c r="B970" s="7"/>
-    </row>
-    <row r="971" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A971" s="7"/>
-      <c r="B971" s="7"/>
-    </row>
-    <row r="972" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A972" s="7"/>
-      <c r="B972" s="7"/>
-    </row>
-    <row r="973" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A973" s="7"/>
-      <c r="B973" s="7"/>
-    </row>
-    <row r="974" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A974" s="7"/>
-      <c r="B974" s="7"/>
-    </row>
-    <row r="975" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A975" s="7"/>
-      <c r="B975" s="7"/>
-    </row>
-    <row r="976" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A976" s="7"/>
-      <c r="B976" s="7"/>
-    </row>
-    <row r="977" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A977" s="7"/>
-      <c r="B977" s="7"/>
-    </row>
-    <row r="978" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A978" s="7"/>
-      <c r="B978" s="7"/>
-    </row>
-    <row r="979" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A979" s="7"/>
-      <c r="B979" s="7"/>
-    </row>
-    <row r="980" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A980" s="7"/>
-      <c r="B980" s="7"/>
-    </row>
-    <row r="981" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A981" s="7"/>
-      <c r="B981" s="7"/>
-    </row>
-    <row r="982" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A982" s="7"/>
-      <c r="B982" s="7"/>
-    </row>
-    <row r="983" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A983" s="7"/>
-      <c r="B983" s="7"/>
-    </row>
-    <row r="984" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A984" s="7"/>
-      <c r="B984" s="7"/>
-    </row>
-    <row r="985" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A985" s="7"/>
-      <c r="B985" s="7"/>
-    </row>
-    <row r="986" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A986" s="7"/>
-      <c r="B986" s="7"/>
-    </row>
-    <row r="987" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A987" s="7"/>
-      <c r="B987" s="7"/>
-    </row>
-    <row r="988" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A988" s="7"/>
-      <c r="B988" s="7"/>
-    </row>
-    <row r="989" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A989" s="7"/>
-      <c r="B989" s="7"/>
-    </row>
-    <row r="990" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A990" s="7"/>
-      <c r="B990" s="7"/>
-    </row>
-    <row r="991" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A991" s="7"/>
-      <c r="B991" s="7"/>
-    </row>
-    <row r="992" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A992" s="7"/>
-      <c r="B992" s="7"/>
-    </row>
-    <row r="993" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A993" s="7"/>
-      <c r="B993" s="7"/>
-    </row>
-    <row r="994" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A994" s="7"/>
-      <c r="B994" s="7"/>
-    </row>
-    <row r="995" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A995" s="7"/>
-      <c r="B995" s="7"/>
-    </row>
-    <row r="996" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A996" s="7"/>
-      <c r="B996" s="7"/>
-    </row>
-    <row r="997" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A997" s="7"/>
-      <c r="B997" s="7"/>
-    </row>
-    <row r="998" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A998" s="7"/>
-      <c r="B998" s="7"/>
-    </row>
-    <row r="999" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A999" s="7"/>
-      <c r="B999" s="7"/>
-    </row>
-    <row r="1000" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="7"/>
-      <c r="B1000" s="7"/>
-    </row>
-    <row r="1001" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1001" s="7"/>
-      <c r="B1001" s="7"/>
-    </row>
-    <row r="1002" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1002" s="7"/>
-      <c r="B1002" s="7"/>
-    </row>
-    <row r="1003" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1003" s="7"/>
-      <c r="B1003" s="7"/>
-    </row>
-    <row r="1004" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1004" s="7"/>
-      <c r="B1004" s="7"/>
-    </row>
-    <row r="1005" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1005" s="7"/>
-      <c r="B1005" s="7"/>
-    </row>
-    <row r="1006" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1006" s="7"/>
-      <c r="B1006" s="7"/>
-    </row>
-    <row r="1007" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1007" s="7"/>
-      <c r="B1007" s="7"/>
-    </row>
-    <row r="1008" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1008" s="7"/>
-      <c r="B1008" s="7"/>
-    </row>
-    <row r="1009" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1009" s="7"/>
-      <c r="B1009" s="7"/>
-    </row>
-    <row r="1010" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1010" s="7"/>
-      <c r="B1010" s="7"/>
-    </row>
-    <row r="1011" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1011" s="7"/>
-      <c r="B1011" s="7"/>
-    </row>
-    <row r="1012" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1012" s="7"/>
-      <c r="B1012" s="7"/>
-    </row>
-    <row r="1013" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1013" s="7"/>
-      <c r="B1013" s="7"/>
-    </row>
-    <row r="1014" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1014" s="7"/>
-      <c r="B1014" s="7"/>
-    </row>
-    <row r="1015" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1015" s="7"/>
-      <c r="B1015" s="7"/>
-    </row>
-    <row r="1016" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1016" s="7"/>
-      <c r="B1016" s="7"/>
-    </row>
-    <row r="1017" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1017" s="7"/>
-      <c r="B1017" s="7"/>
-    </row>
-    <row r="1018" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1018" s="7"/>
-      <c r="B1018" s="7"/>
-    </row>
-    <row r="1019" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1019" s="7"/>
-      <c r="B1019" s="7"/>
-    </row>
-    <row r="1020" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1020" s="7"/>
-      <c r="B1020" s="7"/>
-    </row>
-    <row r="1021" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1021" s="7"/>
-      <c r="B1021" s="7"/>
-    </row>
-    <row r="1022" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1022" s="7"/>
-      <c r="B1022" s="7"/>
-    </row>
-    <row r="1023" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1023" s="7"/>
-      <c r="B1023" s="7"/>
-    </row>
-    <row r="1024" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1024" s="7"/>
-      <c r="B1024" s="7"/>
-    </row>
-    <row r="1025" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1025" s="7"/>
-      <c r="B1025" s="7"/>
-    </row>
-    <row r="1026" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1026" s="7"/>
-      <c r="B1026" s="7"/>
-    </row>
-    <row r="1027" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1027" s="7"/>
-      <c r="B1027" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -19540,7 +18016,7 @@
     <mergeCell ref="G3:G8"/>
     <mergeCell ref="G9:G25"/>
   </mergeCells>
-  <conditionalFormatting sqref="H55:H1048576 H1:H15 H18:H41 H44:H50">
+  <conditionalFormatting sqref="H1:H15 H18:H41 H44:H50 H55:H1048576">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
@@ -19566,7 +18042,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E57:E227 E3:E54" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E57:E125 E3:E54" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Critical,High,Low"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YL\Desktop\SMU YEAR 2\Y2S1\Software Project Management G8 IS212\SPM\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDD4849-7336-4CE8-BEFC-6D502C7FD478}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF5E60F-6CA1-44B0-BF21-C51F25A4A46B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3768" yWindow="2028" windowWidth="19272" windowHeight="10476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
     <t>User are not able to see the courses in Round 2 due to some errors in the code</t>
   </si>
   <si>
-    <t>Add Bid(Round 2)</t>
+    <t xml:space="preserve">Add Bid for Round 2 </t>
   </si>
 </sst>
 </file>
@@ -873,6 +873,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -896,9 +899,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1469,16 +1469,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -2787,9 +2787,9 @@
       </c>
       <c r="C47" s="41" t="str">
         <f>'Bug Metrics'!$C47</f>
-        <v>Add Bid(Round 2)</v>
-      </c>
-      <c r="D47" s="83" t="s">
+        <v xml:space="preserve">Add Bid for Round 2 </v>
+      </c>
+      <c r="D47" s="75" t="s">
         <v>105</v>
       </c>
       <c r="E47" s="53" t="s">
@@ -12428,8 +12428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H925"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12446,16 +12446,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
@@ -12504,7 +12504,7 @@
         <f t="shared" ref="F3:F125" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="82">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -12534,7 +12534,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="78"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12558,7 +12558,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="78"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12582,7 +12582,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="78"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12606,7 +12606,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="78"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12630,7 +12630,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="82"/>
+      <c r="G8" s="83"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12654,7 +12654,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="82">
         <f>SUM(F9:F25)</f>
         <v>87</v>
       </c>
@@ -12684,7 +12684,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="78"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12708,7 +12708,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12732,7 +12732,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="78"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12756,7 +12756,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="78"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12780,7 +12780,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G14" s="78"/>
+      <c r="G14" s="79"/>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12804,7 +12804,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="79"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12828,7 +12828,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12852,7 +12852,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17" s="78"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12876,7 +12876,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="78"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12900,7 +12900,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="78"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12924,7 +12924,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G20" s="78"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12948,7 +12948,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="78"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12972,7 +12972,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="78"/>
+      <c r="G22" s="79"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12996,7 +12996,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="78"/>
+      <c r="G23" s="79"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -13020,7 +13020,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="78"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -13044,7 +13044,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G25" s="78"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13068,7 +13068,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="80">
+      <c r="G26" s="81">
         <f>SUM(F26:F43)</f>
         <v>67</v>
       </c>
@@ -13098,7 +13098,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="78"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -13122,7 +13122,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="78"/>
+      <c r="G28" s="79"/>
       <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -13146,7 +13146,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="78"/>
+      <c r="G29" s="79"/>
       <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13170,7 +13170,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="78"/>
+      <c r="G30" s="79"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13194,7 +13194,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="78"/>
+      <c r="G31" s="79"/>
       <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13218,7 +13218,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G32" s="78"/>
+      <c r="G32" s="79"/>
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13242,7 +13242,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G33" s="78"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13266,7 +13266,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="78"/>
+      <c r="G34" s="79"/>
       <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13290,7 +13290,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G35" s="78"/>
+      <c r="G35" s="79"/>
       <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13314,7 +13314,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G36" s="78"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13338,7 +13338,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G37" s="78"/>
+      <c r="G37" s="79"/>
       <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13362,7 +13362,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G38" s="78"/>
+      <c r="G38" s="79"/>
       <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -13386,7 +13386,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G39" s="78"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13409,7 +13409,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G40" s="78"/>
+      <c r="G40" s="79"/>
       <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" s="56" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -13432,7 +13432,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G41" s="78"/>
+      <c r="G41" s="79"/>
       <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" s="56" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -13456,7 +13456,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G42" s="78"/>
+      <c r="G42" s="79"/>
       <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:8" s="56" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -13480,7 +13480,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G43" s="79"/>
+      <c r="G43" s="80"/>
       <c r="H43" s="64"/>
     </row>
     <row r="44" spans="1:8" s="56" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13504,7 +13504,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G44" s="80">
+      <c r="G44" s="81">
         <f>SUM(F44:F50)</f>
         <v>26</v>
       </c>
@@ -13534,7 +13534,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G45" s="78"/>
+      <c r="G45" s="79"/>
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" s="56" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13558,7 +13558,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G46" s="78"/>
+      <c r="G46" s="79"/>
       <c r="H46" s="63"/>
     </row>
     <row r="47" spans="1:8" s="56" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13582,7 +13582,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G47" s="78"/>
+      <c r="G47" s="79"/>
       <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13600,7 +13600,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G48" s="78"/>
+      <c r="G48" s="79"/>
       <c r="H48" s="63"/>
     </row>
     <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13618,7 +13618,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G49" s="78"/>
+      <c r="G49" s="79"/>
       <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -13636,7 +13636,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G50" s="79"/>
+      <c r="G50" s="80"/>
       <c r="H50" s="64"/>
     </row>
     <row r="51" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13654,7 +13654,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G51" s="78">
+      <c r="G51" s="79">
         <f>SUM(F51:F54)</f>
         <v>0</v>
       </c>
@@ -13678,7 +13678,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G52" s="78"/>
+      <c r="G52" s="79"/>
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13696,7 +13696,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G53" s="78"/>
+      <c r="G53" s="79"/>
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -13714,7 +13714,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G54" s="79"/>
+      <c r="G54" s="80"/>
       <c r="H54" s="64"/>
     </row>
     <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YL\Desktop\SMU YEAR 2\Y2S1\Software Project Management G8 IS212\SPM\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF5E60F-6CA1-44B0-BF21-C51F25A4A46B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9478AB50-2C4D-451B-A847-B6D6F6EF1D94}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3768" yWindow="2028" windowWidth="19272" windowHeight="10476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="108">
   <si>
     <t>Severity</t>
   </si>
@@ -352,6 +352,9 @@
   <si>
     <t xml:space="preserve">Add Bid for Round 2 </t>
   </si>
+  <si>
+    <t>Failure to check when user enter a value that have more than 2 decimal.</t>
+  </si>
 </sst>
 </file>
 
@@ -651,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -874,6 +877,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1451,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1469,16 +1478,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -2806,20 +2815,37 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
+      <c r="A48" s="41">
+        <v>46</v>
+      </c>
+      <c r="B48" s="41">
+        <v>4</v>
+      </c>
+      <c r="C48" s="41" t="str">
+        <f>'Bug Metrics'!$C48</f>
+        <v>Add Bid</v>
+      </c>
+      <c r="D48" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="44">
+        <v>43777</v>
+      </c>
+      <c r="G48" s="44">
+        <v>43777</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="29"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="75"/>
       <c r="E49" s="29"/>
       <c r="F49" s="44"/>
       <c r="G49" s="44"/>
@@ -12428,8 +12454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H925"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12446,16 +12472,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
@@ -12504,7 +12530,7 @@
         <f t="shared" ref="F3:F125" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G3" s="82">
+      <c r="G3" s="84">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -12534,7 +12560,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12558,7 +12584,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="79"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12582,7 +12608,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="79"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12606,7 +12632,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="79"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12630,7 +12656,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="83"/>
+      <c r="G8" s="85"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12654,7 +12680,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="84">
         <f>SUM(F9:F25)</f>
         <v>87</v>
       </c>
@@ -12684,7 +12710,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="79"/>
+      <c r="G10" s="81"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12708,7 +12734,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G11" s="79"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12732,7 +12758,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="79"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12756,7 +12782,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="79"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12780,7 +12806,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G14" s="79"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12804,7 +12830,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G15" s="79"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12828,7 +12854,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="79"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12852,7 +12878,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17" s="79"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12876,7 +12902,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="79"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12900,7 +12926,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="79"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12924,7 +12950,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G20" s="79"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12948,7 +12974,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="79"/>
+      <c r="G21" s="81"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12972,7 +12998,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="79"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12996,7 +13022,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="79"/>
+      <c r="G23" s="81"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -13020,7 +13046,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="79"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -13044,7 +13070,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G25" s="79"/>
+      <c r="G25" s="81"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13068,7 +13094,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="83">
         <f>SUM(F26:F43)</f>
         <v>67</v>
       </c>
@@ -13098,7 +13124,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="79"/>
+      <c r="G27" s="81"/>
       <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -13122,7 +13148,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="79"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -13146,7 +13172,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="79"/>
+      <c r="G29" s="81"/>
       <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13170,7 +13196,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="79"/>
+      <c r="G30" s="81"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13194,7 +13220,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="79"/>
+      <c r="G31" s="81"/>
       <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13218,7 +13244,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G32" s="79"/>
+      <c r="G32" s="81"/>
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13242,7 +13268,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G33" s="79"/>
+      <c r="G33" s="81"/>
       <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13266,7 +13292,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="79"/>
+      <c r="G34" s="81"/>
       <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13290,7 +13316,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G35" s="79"/>
+      <c r="G35" s="81"/>
       <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13314,7 +13340,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G36" s="79"/>
+      <c r="G36" s="81"/>
       <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13338,7 +13364,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G37" s="79"/>
+      <c r="G37" s="81"/>
       <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13362,7 +13388,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G38" s="79"/>
+      <c r="G38" s="81"/>
       <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -13386,7 +13412,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G39" s="79"/>
+      <c r="G39" s="81"/>
       <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13409,7 +13435,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G40" s="79"/>
+      <c r="G40" s="81"/>
       <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" s="56" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -13432,7 +13458,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G41" s="79"/>
+      <c r="G41" s="81"/>
       <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" s="56" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -13456,7 +13482,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G42" s="79"/>
+      <c r="G42" s="81"/>
       <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:8" s="56" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -13480,7 +13506,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G43" s="80"/>
+      <c r="G43" s="82"/>
       <c r="H43" s="64"/>
     </row>
     <row r="44" spans="1:8" s="56" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13504,9 +13530,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G44" s="81">
+      <c r="G44" s="83">
         <f>SUM(F44:F50)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H44" s="70" t="str">
         <f xml:space="preserve"> IF(G44&lt;10,Instructions!B7,Instructions!B8)</f>
@@ -13534,7 +13560,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G45" s="79"/>
+      <c r="G45" s="81"/>
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" s="56" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13558,7 +13584,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G46" s="79"/>
+      <c r="G46" s="81"/>
       <c r="H46" s="63"/>
     </row>
     <row r="47" spans="1:8" s="56" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13582,7 +13608,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G47" s="79"/>
+      <c r="G47" s="81"/>
       <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13593,14 +13619,20 @@
       <c r="B48" s="12">
         <v>4</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54" t="str">
+      <c r="C48" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="54">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G48" s="79"/>
+        <v>5</v>
+      </c>
+      <c r="G48" s="81"/>
       <c r="H48" s="63"/>
     </row>
     <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13613,12 +13645,9 @@
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="24"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G49" s="79"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="81"/>
       <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -13636,7 +13665,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G50" s="80"/>
+      <c r="G50" s="82"/>
       <c r="H50" s="64"/>
     </row>
     <row r="51" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13654,7 +13683,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G51" s="79">
+      <c r="G51" s="81">
         <f>SUM(F51:F54)</f>
         <v>0</v>
       </c>
@@ -13678,7 +13707,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G52" s="79"/>
+      <c r="G52" s="81"/>
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13696,7 +13725,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G53" s="79"/>
+      <c r="G53" s="81"/>
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -13714,7 +13743,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G54" s="80"/>
+      <c r="G54" s="82"/>
       <c r="H54" s="64"/>
     </row>
     <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YL\Desktop\SMU YEAR 2\Y2S1\Software Project Management G8 IS212\SPM\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9478AB50-2C4D-451B-A847-B6D6F6EF1D94}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E545853E-DD4F-4802-AA2E-15912CF475FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="110">
   <si>
     <t>Severity</t>
   </si>
@@ -355,6 +355,12 @@
   <si>
     <t>Failure to check when user enter a value that have more than 2 decimal.</t>
   </si>
+  <si>
+    <t>Add Bid process, Edit bid process</t>
+  </si>
+  <si>
+    <t>Failure to check when user enter a value high than his/her edollars</t>
+  </si>
 </sst>
 </file>
 
@@ -654,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -881,9 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1460,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1478,16 +1481,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -2563,7 +2566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>37</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>45</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>46</v>
       </c>
@@ -2823,7 +2826,7 @@
       </c>
       <c r="C48" s="41" t="str">
         <f>'Bug Metrics'!$C48</f>
-        <v>Add Bid</v>
+        <v>Add Bid process, Edit bid process</v>
       </c>
       <c r="D48" s="75" t="s">
         <v>107</v>
@@ -2841,15 +2844,32 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="45"/>
+    <row r="49" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41">
+        <v>47</v>
+      </c>
+      <c r="B49" s="41">
+        <v>4</v>
+      </c>
+      <c r="C49" s="41" t="str">
+        <f>'Bug Metrics'!$C49</f>
+        <v>Add Bid process, Edit bid process</v>
+      </c>
+      <c r="D49" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="44">
+        <v>43777</v>
+      </c>
+      <c r="G49" s="44">
+        <v>43779</v>
+      </c>
+      <c r="H49" s="45" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
@@ -12455,7 +12475,7 @@
   <dimension ref="A1:H925"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:F49"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12472,16 +12492,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
@@ -12530,7 +12550,7 @@
         <f t="shared" ref="F3:F125" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G3" s="84">
+      <c r="G3" s="83">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -12560,7 +12580,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="81"/>
+      <c r="G4" s="80"/>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12584,7 +12604,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="81"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12608,7 +12628,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="81"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12632,7 +12652,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="81"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12656,7 +12676,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="85"/>
+      <c r="G8" s="84"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12680,7 +12700,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="83">
         <f>SUM(F9:F25)</f>
         <v>87</v>
       </c>
@@ -12710,7 +12730,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="81"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12734,7 +12754,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G11" s="81"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12758,7 +12778,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="81"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12782,7 +12802,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="81"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12806,7 +12826,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12830,7 +12850,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G15" s="81"/>
+      <c r="G15" s="80"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12854,7 +12874,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="81"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12878,7 +12898,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17" s="81"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12902,7 +12922,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="81"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -12926,7 +12946,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="81"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12950,7 +12970,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G20" s="81"/>
+      <c r="G20" s="80"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12974,7 +12994,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="81"/>
+      <c r="G21" s="80"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -12998,7 +13018,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="81"/>
+      <c r="G22" s="80"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -13022,7 +13042,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="81"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -13046,7 +13066,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="81"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -13070,7 +13090,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G25" s="81"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13094,7 +13114,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="83">
+      <c r="G26" s="82">
         <f>SUM(F26:F43)</f>
         <v>67</v>
       </c>
@@ -13124,7 +13144,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="81"/>
+      <c r="G27" s="80"/>
       <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -13148,7 +13168,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="81"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -13172,7 +13192,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="81"/>
+      <c r="G29" s="80"/>
       <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13196,7 +13216,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="81"/>
+      <c r="G30" s="80"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13220,7 +13240,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="81"/>
+      <c r="G31" s="80"/>
       <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13244,7 +13264,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G32" s="81"/>
+      <c r="G32" s="80"/>
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13268,7 +13288,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G33" s="81"/>
+      <c r="G33" s="80"/>
       <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13292,7 +13312,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="81"/>
+      <c r="G34" s="80"/>
       <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13316,7 +13336,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G35" s="81"/>
+      <c r="G35" s="80"/>
       <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13340,7 +13360,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G36" s="81"/>
+      <c r="G36" s="80"/>
       <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13364,7 +13384,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G37" s="81"/>
+      <c r="G37" s="80"/>
       <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13388,7 +13408,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G38" s="81"/>
+      <c r="G38" s="80"/>
       <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -13412,7 +13432,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G39" s="81"/>
+      <c r="G39" s="80"/>
       <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13435,7 +13455,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G40" s="81"/>
+      <c r="G40" s="80"/>
       <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" s="56" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -13458,7 +13478,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G41" s="81"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" s="56" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -13482,7 +13502,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G42" s="81"/>
+      <c r="G42" s="80"/>
       <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:8" s="56" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -13506,7 +13526,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G43" s="82"/>
+      <c r="G43" s="81"/>
       <c r="H43" s="64"/>
     </row>
     <row r="44" spans="1:8" s="56" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13530,9 +13550,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G44" s="83">
+      <c r="G44" s="82">
         <f>SUM(F44:F50)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H44" s="70" t="str">
         <f xml:space="preserve"> IF(G44&lt;10,Instructions!B7,Instructions!B8)</f>
@@ -13560,7 +13580,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G45" s="81"/>
+      <c r="G45" s="80"/>
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" s="56" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13584,7 +13604,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G46" s="81"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="63"/>
     </row>
     <row r="47" spans="1:8" s="56" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13608,10 +13628,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G47" s="81"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="63"/>
     </row>
-    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="71">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -13620,7 +13640,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>107</v>
@@ -13632,10 +13652,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G48" s="81"/>
+      <c r="G48" s="80"/>
       <c r="H48" s="63"/>
     </row>
-    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="71">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -13643,11 +13663,20 @@
       <c r="B49" s="12">
         <v>4</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="81"/>
+      <c r="C49" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="76">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G49" s="80"/>
       <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -13665,7 +13694,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G50" s="82"/>
+      <c r="G50" s="81"/>
       <c r="H50" s="64"/>
     </row>
     <row r="51" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13683,7 +13712,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G51" s="81">
+      <c r="G51" s="80">
         <f>SUM(F51:F54)</f>
         <v>0</v>
       </c>
@@ -13707,7 +13736,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G52" s="81"/>
+      <c r="G52" s="80"/>
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -13725,7 +13754,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G53" s="81"/>
+      <c r="G53" s="80"/>
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -13743,7 +13772,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G54" s="82"/>
+      <c r="G54" s="81"/>
       <c r="H54" s="64"/>
     </row>
     <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YL\Desktop\SMU YEAR 2\Y2S1\Software Project Management G8 IS212\SPM\project-g8t9\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee-y\Desktop\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E545853E-DD4F-4802-AA2E-15912CF475FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A2BE05-BAF4-419D-98EB-CB791F73F2A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="113">
   <si>
     <t>Severity</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>Failure to check when user enter a value high than his/her edollars</t>
+  </si>
+  <si>
+    <t>Bid Status</t>
+  </si>
+  <si>
+    <t>Wrong students display order</t>
+  </si>
+  <si>
+    <t>TY &amp; C</t>
   </si>
 </sst>
 </file>
@@ -1463,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2872,14 +2881,32 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="45"/>
+      <c r="A50" s="41">
+        <v>48</v>
+      </c>
+      <c r="B50" s="41">
+        <v>5</v>
+      </c>
+      <c r="C50" s="41" t="str">
+        <f>'Bug Metrics'!C51</f>
+        <v>Bid Status</v>
+      </c>
+      <c r="D50" s="29" t="str">
+        <f>'Bug Metrics'!D51</f>
+        <v>Wrong students display order</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="44">
+        <v>43785</v>
+      </c>
+      <c r="G50" s="44">
+        <v>43785</v>
+      </c>
+      <c r="H50" s="45" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
@@ -12474,8 +12501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H925"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13705,16 +13732,22 @@
       <c r="B51" s="12">
         <v>5</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54" t="str">
+      <c r="C51" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="54">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G51" s="80">
         <f>SUM(F51:F54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="63" t="str">
         <f xml:space="preserve"> IF(G51&lt;10,Instructions!B7,Instructions!B8)</f>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee-y\Desktop\project-g8t9\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A2BE05-BAF4-419D-98EB-CB791F73F2A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307B63AE-9837-45F8-BA1E-A53E23DBAC0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7548" yWindow="444" windowWidth="13008" windowHeight="11916" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="115">
   <si>
     <t>Severity</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>TY &amp; C</t>
+  </si>
+  <si>
+    <t>Bid-dump, bid-status, dump, section-dump, user-dump</t>
+  </si>
+  <si>
+    <t>Wrong display of decimal place for json message</t>
   </si>
 </sst>
 </file>
@@ -1472,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2909,14 +2915,32 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="45"/>
+      <c r="A51" s="41">
+        <v>49</v>
+      </c>
+      <c r="B51" s="41">
+        <v>5</v>
+      </c>
+      <c r="C51" s="41" t="str">
+        <f>'Bug Metrics'!C52</f>
+        <v>Bid-dump, bid-status, dump, section-dump, user-dump</v>
+      </c>
+      <c r="D51" s="41" t="str">
+        <f>'Bug Metrics'!D52</f>
+        <v>Wrong display of decimal place for json message</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="44">
+        <v>43785</v>
+      </c>
+      <c r="G51" s="44">
+        <v>43785</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
@@ -12502,7 +12526,7 @@
   <dimension ref="A1:H925"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13754,7 +13778,7 @@
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A52" s="71">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -13762,8 +13786,12 @@
       <c r="B52" s="12">
         <v>5</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="24"/>
+      <c r="C52" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="E52" s="54"/>
       <c r="F52" s="54" t="str">
         <f t="shared" si="0"/>
